--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>3.63</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>3.82</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>5.07</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.69</v>
+        <v>5.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.63</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.69</v>
+        <v>2.69</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.51</v>
+        <v>3.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.84</v>
+        <v>5.9</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.87</v>
+        <v>6.92</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>3.51</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.93</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.84</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.21</v>
+        <v>3.87</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.91</v>
+        <v>2.94</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.09</v>
+        <v>3.27</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.9</v>
+        <v>3.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>6.92</v>
+        <v>5.21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>2.47</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.16</v>
+        <v>3.31</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>20/08/2023 16:56</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.97</v>
+        <v>2.36</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.29</v>
+        <v>3.09</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.85</v>
+        <v>2.81</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.74</v>
+        <v>2.31</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.94</v>
+        <v>1.61</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.11</v>
+        <v>3.47</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:39</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.16</v>
+        <v>4.23</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.26</v>
+        <v>4.73</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:39</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.23</v>
+        <v>2.16</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.73</v>
+        <v>2.26</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.36</v>
+        <v>3.97</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.09</v>
+        <v>4.29</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.73</v>
+        <v>3.14</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.81</v>
+        <v>1.85</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.31</v>
+        <v>1.74</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.37</v>
+        <v>3.06</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.21</v>
+        <v>3.14</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:55</t>
+          <t>22/08/2023 16:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.97</v>
+        <v>3.04</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:58</t>
+          <t>22/08/2023 16:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.84</v>
+        <v>2.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.050000000000001</v>
+        <v>2.18</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:58</t>
+          <t>22/08/2023 16:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-strumska-slava/pzHBg0wI/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-septemvri-sofia/jZrqyhNj/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.06</v>
+        <v>1.37</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>22/08/2023 10:12</t>
+          <t>21/08/2023 05:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.14</v>
+        <v>1.21</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>22/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>21/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>22/08/2023 16:58</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>22/08/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>22/08/2023 16:59</t>
-        </is>
-      </c>
       <c r="R54" t="n">
-        <v>2.14</v>
+        <v>5.84</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>22/08/2023 10:12</t>
+          <t>21/08/2023 05:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.18</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/08/2023 16:59</t>
+          <t>22/08/2023 16:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-septemvri-sofia/jZrqyhNj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-strumska-slava/pzHBg0wI/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.14</v>
+        <v>2.59</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.77</v>
+        <v>1.58</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.79</v>
+        <v>3.6</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.14</v>
+        <v>3.84</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.59</v>
+        <v>5.14</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>16/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>3.17</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S73" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P73" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>16/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T73" t="n">
-        <v>2.6</v>
+        <v>4.58</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Chernomorets 1919</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.84</v>
+        <v>4.49</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.58</v>
+        <v>4.09</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Spartak Pleven</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.54</v>
+        <v>4.38</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.49</v>
+        <v>5.25</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.49</v>
+        <v>7.61</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.09</v>
+        <v>13.6</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.27</v>
+        <v>3.17</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.61</v>
+        <v>2.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.77</v>
+        <v>4.04</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.23</v>
+        <v>4.83</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.11</v>
+        <v>5.31</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.57</v>
+        <v>7.8</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.04</v>
+        <v>2.77</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.83</v>
+        <v>3.23</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.31</v>
+        <v>3.11</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.8</v>
+        <v>3.57</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.05</v>
+        <v>2.87</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:40</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.25</v>
+        <v>2.29</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.87</v>
+        <v>2.05</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:40</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.29</v>
+        <v>3.25</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.49</v>
+        <v>1.76</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.42</v>
+        <v>1.88</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.56</v>
+        <v>3.82</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.07</v>
+        <v>3.65</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.76</v>
+        <v>2.49</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.88</v>
+        <v>3.42</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.82</v>
+        <v>2.56</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.65</v>
+        <v>2.07</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,98 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-montana/6J6qNsLT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45205.625</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>05/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>06/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-svoge/d4NTgOki/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.63</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.69</v>
+        <v>2.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>3.63</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.18</v>
+        <v>3.82</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.48</v>
+        <v>5.07</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.69</v>
+        <v>5.69</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.5</v>
+        <v>3.91</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.44</v>
+        <v>4.09</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.69</v>
+        <v>5.9</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.73</v>
+        <v>6.92</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.91</v>
+        <v>3.51</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.9</v>
+        <v>4.84</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.92</v>
+        <v>3.87</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.51</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.93</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.84</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.87</v>
+        <v>5.21</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.66</v>
+        <v>4.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.21</v>
+        <v>4.73</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.47</v>
+        <v>2.51</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:56</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.51</v>
+        <v>2.47</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.16</v>
+        <v>3.31</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:56</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,63 +4813,63 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.36</v>
+        <v>3.97</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.09</v>
+        <v>4.29</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2.73</v>
+        <v>3.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2.87</v>
+        <v>3.3</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.81</v>
+        <v>1.85</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.31</v>
+        <v>1.74</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.73</v>
+        <v>2.92</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.61</v>
+        <v>2.94</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.47</v>
+        <v>3.11</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:39</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.23</v>
+        <v>2.16</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.73</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.94</v>
+        <v>1.61</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.11</v>
+        <v>3.47</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:39</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.16</v>
+        <v>4.23</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.26</v>
+        <v>4.73</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,63 +5089,63 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.97</v>
+        <v>2.36</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.29</v>
+        <v>3.09</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.3</v>
+        <v>2.87</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.85</v>
+        <v>2.81</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.74</v>
+        <v>2.31</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>3.06</v>
+        <v>1.37</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>22/08/2023 10:12</t>
+          <t>21/08/2023 05:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.14</v>
+        <v>1.21</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>22/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>21/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
           <t>22/08/2023 16:58</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>22/08/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>22/08/2023 16:59</t>
-        </is>
-      </c>
       <c r="R53" t="n">
-        <v>2.14</v>
+        <v>5.84</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>22/08/2023 10:12</t>
+          <t>21/08/2023 05:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.18</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:59</t>
+          <t>22/08/2023 16:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-septemvri-sofia/jZrqyhNj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-strumska-slava/pzHBg0wI/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.37</v>
+        <v>3.06</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.21</v>
+        <v>3.14</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>22/08/2023 16:55</t>
+          <t>22/08/2023 16:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.97</v>
+        <v>3.04</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>4.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>22/08/2023 16:58</t>
+          <t>22/08/2023 16:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.84</v>
+        <v>2.14</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>8.050000000000001</v>
+        <v>2.18</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/08/2023 16:58</t>
+          <t>22/08/2023 16:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-strumska-slava/pzHBg0wI/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-septemvri-sofia/jZrqyhNj/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.77</v>
+        <v>1.58</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>3.6</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.14</v>
+        <v>3.84</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.59</v>
+        <v>5.14</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.14</v>
+        <v>2.59</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.75</v>
+        <v>3.17</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.75</v>
+        <v>2.61</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.84</v>
+        <v>2.06</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.58</v>
+        <v>2.6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.49</v>
+        <v>3.18</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.49</v>
+        <v>3.84</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.09</v>
+        <v>4.58</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.38</v>
+        <v>3.54</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.25</v>
+        <v>3.49</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>7.61</v>
+        <v>4.49</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.6</v>
+        <v>4.09</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.61</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.89</v>
+        <v>4.38</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.98</v>
+        <v>5.25</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.06</v>
+        <v>7.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,282 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-svoge/d4NTgOki/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:37</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.01</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.82</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.9</v>
+        <v>3.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.21</v>
+        <v>5.07</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.78</v>
+        <v>5.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.63</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.07</v>
+        <v>3.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.69</v>
+        <v>3.78</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Chernomorets Balchik</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:24</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3.24</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.75</v>
+        <v>4.58</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.35</v>
+        <v>4.19</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.55</v>
+        <v>4.85</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.79</v>
+        <v>4.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.57</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.58</v>
+        <v>1.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.85</v>
+        <v>1.37</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>4.66</v>
+        <v>1.24</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:24</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.32</v>
+        <v>4.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.57</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>6.75</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.64</v>
+        <v>10.35</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.47</v>
+        <v>3.09</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.93</v>
+        <v>2.73</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.31</v>
+        <v>2.87</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.48</v>
+        <v>2.81</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.49</v>
+        <v>2.31</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.97</v>
+        <v>1.73</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.29</v>
+        <v>1.61</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.85</v>
+        <v>4.23</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.74</v>
+        <v>4.73</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.73</v>
+        <v>3.97</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.61</v>
+        <v>4.29</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.23</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.73</v>
+        <v>1.74</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.09</v>
+        <v>2.47</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.73</v>
+        <v>2.93</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.87</v>
+        <v>3.31</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.81</v>
+        <v>2.48</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.31</v>
+        <v>2.49</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.37</v>
+        <v>3.06</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.21</v>
+        <v>3.14</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:55</t>
+          <t>22/08/2023 16:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.97</v>
+        <v>3.04</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.97</v>
+        <v>3.05</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:58</t>
+          <t>22/08/2023 16:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.84</v>
+        <v>2.14</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>21/08/2023 05:12</t>
+          <t>22/08/2023 10:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.050000000000001</v>
+        <v>2.18</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>22/08/2023 16:58</t>
+          <t>22/08/2023 16:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-strumska-slava/pzHBg0wI/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-septemvri-sofia/jZrqyhNj/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.06</v>
+        <v>1.37</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>22/08/2023 10:12</t>
+          <t>21/08/2023 05:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.14</v>
+        <v>1.21</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>22/08/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>21/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>22/08/2023 16:58</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>22/08/2023 10:12</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>22/08/2023 16:59</t>
-        </is>
-      </c>
       <c r="R54" t="n">
-        <v>2.14</v>
+        <v>5.84</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>22/08/2023 10:12</t>
+          <t>21/08/2023 05:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.18</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/08/2023 16:59</t>
+          <t>22/08/2023 16:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-septemvri-sofia/jZrqyhNj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-strumska-slava/pzHBg0wI/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,14 +5457,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.36</v>
+        <v>2.11</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.02</v>
+        <v>2.9</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.02</v>
+        <v>3.17</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>5.99</v>
+        <v>3.04</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>7.06</v>
+        <v>3.97</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.11</v>
+        <v>1.36</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2.9</v>
+        <v>4.02</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.17</v>
+        <v>4.02</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.04</v>
+        <v>5.99</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.97</v>
+        <v>7.06</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.52</v>
+        <v>3.76</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,14 +6377,14 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.81</v>
+        <v>5.25</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.67</v>
+        <v>3.9</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:34</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.76</v>
+        <v>1.46</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.68</v>
+        <v>1.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
       <c r="J66" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:34</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>1.63</v>
+        <v>3.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.86</v>
+        <v>1.58</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.97</v>
+        <v>3.6</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.08</v>
+        <v>3.84</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.39</v>
+        <v>5.14</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>5.14</v>
+        <v>2.59</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.07</v>
+        <v>3.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.17</v>
+        <v>4.38</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.18</v>
+        <v>5.25</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.84</v>
+        <v>7.61</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.58</v>
+        <v>13.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.02</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.73</v>
+        <v>3.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.63</v>
+        <v>4.49</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.52</v>
+        <v>4.09</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.49</v>
+        <v>3.18</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.49</v>
+        <v>3.84</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.09</v>
+        <v>4.58</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>3.02</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.38</v>
+        <v>2.73</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.61</v>
+        <v>2.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.6</v>
+        <v>2.52</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.87</v>
+        <v>2.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:40</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.29</v>
+        <v>3.25</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.05</v>
+        <v>2.87</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:40</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.25</v>
+        <v>2.29</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
       <c r="J109" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>5.34</v>
+        <v>4.65</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.7</v>
+        <v>6.37</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.65</v>
+        <v>5.34</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.37</v>
+        <v>6.7</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,282 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:19</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:19</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.06</v>
+        <v>6.35</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Maritsa Plovdiv</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4.06</v>
+        <v>3.11</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,108 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.35</v>
+        <v>2.06</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45208.6875</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:26</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>08/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-spartak-varna/Gjk7xNKG/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>3.63</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>3.82</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>5.07</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.69</v>
+        <v>5.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.5</v>
+        <v>2.85</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.07</v>
+        <v>2.36</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.69</v>
+        <v>2.31</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.93</v>
+        <v>3.44</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.84</v>
+        <v>4.69</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.87</v>
+        <v>4.73</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.93</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.69</v>
+        <v>4.84</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.73</v>
+        <v>3.87</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>2.82</v>
+        <v>2.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.51</v>
+        <v>3.09</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N46" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>19/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
         <v>2.87</v>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>20/08/2023 16:40</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>19/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>20/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>19/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>2.56</v>
+        <v>2.31</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.09</v>
+        <v>2.51</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2.87</v>
+        <v>3.16</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.81</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.31</v>
+        <v>2.56</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dobrudzha/CrpuxY7p/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-montana/6qI7ftOB/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.73</v>
+        <v>3.97</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.61</v>
+        <v>4.29</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.23</v>
+        <v>1.85</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.73</v>
+        <v>1.74</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.94</v>
+        <v>2.47</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:39</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>3.97</v>
+        <v>1.73</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>4.29</v>
+        <v>1.61</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>4.23</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>1.74</v>
+        <v>4.73</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.47</v>
+        <v>2.94</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.31</v>
+        <v>3.11</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:39</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.9</v>
+        <v>3.23</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.04</v>
+        <v>4.46</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.97</v>
+        <v>4.94</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.23</v>
+        <v>2.9</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.46</v>
+        <v>3.04</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.94</v>
+        <v>3.97</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.81</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.76</v>
+        <v>2.52</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.52</v>
+        <v>3.76</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.2</v>
+        <v>3.02</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.38</v>
+        <v>2.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>5.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>7.61</v>
+        <v>2.63</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>13.6</v>
+        <v>2.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.56</v>
+        <v>1.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.02</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.73</v>
+        <v>4.38</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.66</v>
+        <v>5.25</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.63</v>
+        <v>7.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.52</v>
+        <v>13.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>28/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>27/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>28/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O97" t="inlineStr">
+      <c r="R97" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S97" t="inlineStr">
         <is>
           <t>27/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Q97" t="inlineStr">
+      <c r="T97" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>28/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R97" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>27/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T97" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>28/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:56</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.23</v>
+        <v>2.91</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.57</v>
+        <v>4.27</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.06</v>
+        <v>2.97</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:45</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.35</v>
+        <v>3.82</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Belasitsa</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,11 +10808,11 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.9</v>
+        <v>3.34</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:45</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.82</v>
+        <v>2.06</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.06</v>
+        <v>6.35</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,190 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-spartak-varna/Gjk7xNKG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,30 +941,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>3.02</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -972,15 +972,15 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5.19</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -988,15 +988,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.609999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.9</v>
+        <v>2.21</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
         </is>
       </c>
     </row>
@@ -1033,30 +1033,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.02</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1064,15 +1064,15 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>5.19</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1080,15 +1080,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.21</v>
+        <v>5.9</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.99</v>
+        <v>3.22</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.19</v>
+        <v>3.49</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.7</v>
+        <v>4.09</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:05</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.09</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.9</v>
+        <v>4.69</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.92</v>
+        <v>4.73</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.44</v>
+        <v>4.09</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.69</v>
+        <v>5.9</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.73</v>
+        <v>6.92</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>3.51</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.93</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.84</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.21</v>
+        <v>3.87</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.51</v>
+        <v>2.94</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.93</v>
+        <v>3.27</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.84</v>
+        <v>3.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.87</v>
+        <v>5.21</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -4805,71 +4805,71 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.97</v>
+        <v>1.73</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>4.29</v>
+        <v>1.61</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:57</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.85</v>
+        <v>4.23</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>20/08/2023 08:29</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.74</v>
+        <v>4.73</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>20/08/2023 14:47</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.47</v>
+        <v>2.94</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.31</v>
+        <v>3.11</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>20/08/2023 15:02</t>
+          <t>20/08/2023 16:39</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>20/08/2023 14:48</t>
+          <t>20/08/2023 16:40</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
         </is>
       </c>
     </row>
@@ -4989,71 +4989,71 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.73</v>
+        <v>3.97</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.61</v>
+        <v>4.29</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:57</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.23</v>
+        <v>1.85</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:29</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.73</v>
+        <v>1.74</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 14:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-litex-lovech/AHObd2ga/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-varna/pnuZcFU3/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.94</v>
+        <v>2.47</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.11</v>
+        <v>3.31</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:39</t>
+          <t>20/08/2023 15:02</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.16</v>
+        <v>2.48</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>20/08/2023 16:40</t>
+          <t>20/08/2023 14:48</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-dunav-ruse/hvNRay0i/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-maritsa-plovdiv/jPuVbeFc/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.23</v>
+        <v>2.9</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.46</v>
+        <v>3.04</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.94</v>
+        <v>3.97</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,14 +5549,14 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.11</v>
+        <v>1.36</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>2.9</v>
+        <v>4.02</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.17</v>
+        <v>4.02</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.04</v>
+        <v>5.99</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>3.97</v>
+        <v>7.06</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.02</v>
+        <v>3.23</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.02</v>
+        <v>3.19</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.99</v>
+        <v>4.46</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>7.06</v>
+        <v>4.94</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.52</v>
+        <v>3.76</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
       <c r="J66" t="n">
-        <v>1.81</v>
+        <v>2.63</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.76</v>
+        <v>2.52</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.68</v>
+        <v>3.02</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.61</v>
+        <v>1.2</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.89</v>
+        <v>4.38</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.98</v>
+        <v>5.25</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.06</v>
+        <v>7.61</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.56</v>
+        <v>3.17</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.02</v>
+        <v>2.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.63</v>
+        <v>2.06</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>3.02</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.38</v>
+        <v>2.73</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.61</v>
+        <v>2.63</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.6</v>
+        <v>2.52</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>18/09/2023 15:56</t>
+          <t>18/09/2023 15:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>4.37</v>
+        <v>2.93</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.5</v>
+        <v>3.31</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>18/09/2023 15:56</t>
+          <t>18/09/2023 15:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>6.72</v>
+        <v>2.75</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>7.64</v>
+        <v>3.69</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>18/09/2023 15:56</t>
+          <t>18/09/2023 15:58</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-belasitsa-petrich/0rH2MkDL/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-marek/hIDfOBr9/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>2.26</v>
+        <v>1.29</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>18/09/2023 15:59</t>
+          <t>18/09/2023 15:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.93</v>
+        <v>4.37</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.31</v>
+        <v>4.5</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>18/09/2023 15:59</t>
+          <t>18/09/2023 15:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.75</v>
+        <v>6.72</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.69</v>
+        <v>7.64</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>18/09/2023 15:58</t>
+          <t>18/09/2023 15:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-marek/hIDfOBr9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-belasitsa-petrich/0rH2MkDL/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.04</v>
+        <v>2.77</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.83</v>
+        <v>3.23</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.31</v>
+        <v>3.11</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>7.8</v>
+        <v>3.57</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/09/2023 15:56</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.23</v>
+        <v>2.91</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.57</v>
+        <v>4.27</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.89</v>
+        <v>1.3</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.05</v>
+        <v>4.04</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2.91</v>
+        <v>4.83</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.45</v>
+        <v>5.31</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.27</v>
+        <v>7.8</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.76</v>
+        <v>2.49</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.88</v>
+        <v>3.42</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.82</v>
+        <v>2.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.65</v>
+        <v>2.07</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.49</v>
+        <v>1.76</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.42</v>
+        <v>1.88</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.56</v>
+        <v>3.82</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.07</v>
+        <v>3.65</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,374 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,30 +941,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.02</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -972,15 +972,15 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>5.19</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -988,15 +988,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.18</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.21</v>
+        <v>5.9</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
         </is>
       </c>
     </row>
@@ -1033,30 +1033,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>3.02</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1064,15 +1064,15 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5.19</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1080,15 +1080,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.609999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.9</v>
+        <v>2.21</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>4.85</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.99</v>
+        <v>4.66</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.89</v>
+        <v>3.32</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.68</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.85</v>
+        <v>1.37</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.66</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:24</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.32</v>
+        <v>4.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.57</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>6.75</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.64</v>
+        <v>10.35</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Chernomorets Balchik</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.37</v>
+        <v>2.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.24</v>
+        <v>1.99</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:24</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.06</v>
+        <v>2.89</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3.01</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>6.75</v>
+        <v>3.1</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>10.35</v>
+        <v>3.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,282 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:45</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45222.625</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>22/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>22/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:41</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>22/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-dobrudzha/UHcTsIdd/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.34</v>
+        <v>1.22</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.71</v>
+        <v>4.87</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.17</v>
+        <v>5.51</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.86</v>
+        <v>7.93</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.26</v>
+        <v>15.5</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.22</v>
+        <v>2.34</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.87</v>
+        <v>2.71</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>5.51</v>
+        <v>3.17</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.93</v>
+        <v>2.86</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>15.5</v>
+        <v>4.26</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Strumska Slava</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
         <v>1.81</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O122" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O122" t="inlineStr">
+      <c r="P122" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P122" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>21/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T122" t="n">
-        <v>5.05</v>
+        <v>4.56</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:45</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.03</v>
+        <v>3.74</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>4.56</v>
+        <v>5.05</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
         </is>
       </c>
     </row>
@@ -11862,6 +11862,98 @@
       <c r="V124" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-dobrudzha/UHcTsIdd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45224.57291666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>25/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>25/10/2023 12:24</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>25/10/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-spartak-varna/Ox2inXmr/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,30 +941,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>3.02</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -972,15 +972,15 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5.19</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -988,15 +988,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.609999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.9</v>
+        <v>2.21</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
         </is>
       </c>
     </row>
@@ -1033,30 +1033,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.02</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1064,15 +1064,15 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>5.19</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1080,15 +1080,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.21</v>
+        <v>5.9</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:24</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.78</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:24</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.63</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.69</v>
+        <v>2.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.97</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.36</v>
+        <v>5.07</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.31</v>
+        <v>5.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.78</v>
+        <v>2.31</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.85</v>
+        <v>2.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.66</v>
+        <v>1.99</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.32</v>
+        <v>2.89</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.57</v>
+        <v>3.01</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>3.1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>3.68</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.37</v>
+        <v>4.85</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>4.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:24</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.06</v>
+        <v>3.32</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>3.57</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>6.75</v>
+        <v>1.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>10.35</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.09</v>
+        <v>1.37</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.99</v>
+        <v>1.24</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:24</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.89</v>
+        <v>4.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.01</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>6.75</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.68</v>
+        <v>10.35</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.02</v>
+        <v>3.23</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.02</v>
+        <v>3.19</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.99</v>
+        <v>4.46</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>7.06</v>
+        <v>4.94</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.23</v>
+        <v>4.02</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.19</v>
+        <v>4.02</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.46</v>
+        <v>5.99</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.94</v>
+        <v>7.06</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.07</v>
+        <v>3.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.2</v>
+        <v>2.07</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
       <c r="J73" t="n">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.38</v>
+        <v>3.17</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>5.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>7.61</v>
+        <v>3.84</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>13.6</v>
+        <v>4.58</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>3.17</v>
+        <v>1.55</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.89</v>
+        <v>3.54</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.98</v>
+        <v>3.49</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.06</v>
+        <v>4.49</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.61</v>
+        <v>3.02</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.54</v>
+        <v>2.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.49</v>
+        <v>2.63</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.09</v>
+        <v>2.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.17</v>
+        <v>4.38</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.18</v>
+        <v>5.25</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.84</v>
+        <v>7.61</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.58</v>
+        <v>13.6</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.56</v>
+        <v>3.17</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.02</v>
+        <v>2.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.63</v>
+        <v>2.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
       <c r="J78" t="n">
-        <v>2.26</v>
+        <v>1.29</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>18/09/2023 15:59</t>
+          <t>18/09/2023 15:56</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.93</v>
+        <v>4.37</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.31</v>
+        <v>4.5</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>18/09/2023 15:59</t>
+          <t>18/09/2023 15:56</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.75</v>
+        <v>6.72</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.69</v>
+        <v>7.64</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>18/09/2023 15:58</t>
+          <t>18/09/2023 15:56</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-marek/hIDfOBr9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-belasitsa-petrich/0rH2MkDL/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.29</v>
+        <v>2.26</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>18/09/2023 15:56</t>
+          <t>18/09/2023 15:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.37</v>
+        <v>2.93</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.5</v>
+        <v>3.31</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>18/09/2023 15:56</t>
+          <t>18/09/2023 15:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>6.72</v>
+        <v>2.75</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>7.64</v>
+        <v>3.69</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>18/09/2023 15:56</t>
+          <t>18/09/2023 15:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-belasitsa-petrich/0rH2MkDL/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-marek/hIDfOBr9/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.77</v>
+        <v>4.04</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.23</v>
+        <v>4.83</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.11</v>
+        <v>5.31</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.57</v>
+        <v>7.8</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.04</v>
+        <v>2.77</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.83</v>
+        <v>3.23</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.31</v>
+        <v>3.11</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.8</v>
+        <v>3.57</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.49</v>
+        <v>3.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dobrudzha/AXWgso6o/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dobrudzha/AXWgso6o/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.13</v>
+        <v>3.51</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.64</v>
+        <v>4.03</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.65</v>
+        <v>4.72</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.37</v>
+        <v>6.99</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.34</v>
+        <v>4.65</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.7</v>
+        <v>6.37</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.03</v>
+        <v>3.52</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.72</v>
+        <v>5.34</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.99</v>
+        <v>6.7</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2.97</v>
+        <v>4.06</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:45</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.82</v>
+        <v>6.35</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,11 +10808,11 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>3.34</v>
+        <v>1.9</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:45</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.06</v>
+        <v>3.82</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Maritsa Plovdiv</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4.06</v>
+        <v>3.11</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.35</v>
+        <v>2.06</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.22</v>
+        <v>2.34</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.87</v>
+        <v>2.71</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>5.51</v>
+        <v>3.17</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>7.93</v>
+        <v>2.86</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>15.5</v>
+        <v>4.26</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
       <c r="J117" t="n">
-        <v>2.34</v>
+        <v>1.22</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>2.71</v>
+        <v>4.87</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.17</v>
+        <v>5.51</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.86</v>
+        <v>7.93</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.26</v>
+        <v>15.5</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.03</v>
+        <v>3.74</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>4.56</v>
+        <v>5.05</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>1</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Strumska Slava</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
         <v>1.81</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O123" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O123" t="inlineStr">
+      <c r="P123" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S123" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P123" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R123" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>21/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T123" t="n">
-        <v>5.05</v>
+        <v>4.56</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:45</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
         </is>
       </c>
     </row>
@@ -11954,6 +11954,742 @@
       <c r="V125" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-spartak-varna/Ox2inXmr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>4</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:50</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>6</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:46</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,30 +941,30 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.02</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -972,15 +972,15 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.78</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>5.19</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -988,15 +988,15 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.18</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.21</v>
+        <v>5.9</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
         </is>
       </c>
     </row>
@@ -1033,30 +1033,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.29</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>3.02</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1064,15 +1064,15 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>5.19</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1080,15 +1080,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>8.609999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>5.9</v>
+        <v>2.21</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.17</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>4.63</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.09</v>
+        <v>3.91</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>5.61</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>3.17</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.63</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.61</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:05</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.09</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.99</v>
+        <v>3.22</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.49</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.7</v>
+        <v>4.09</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>1.5</v>
+        <v>2.85</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.07</v>
+        <v>2.36</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.69</v>
+        <v>2.31</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.97</v>
+        <v>3.63</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.36</v>
+        <v>5.07</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.31</v>
+        <v>5.69</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.23</v>
+        <v>4.02</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.19</v>
+        <v>4.02</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.46</v>
+        <v>5.99</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.94</v>
+        <v>7.06</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:43</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.02</v>
+        <v>3.23</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>4.02</v>
+        <v>3.19</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.99</v>
+        <v>4.46</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>7.06</v>
+        <v>4.94</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:43</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-bdin-vidin/K4XoeDEM/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.81</v>
+        <v>5.25</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.67</v>
+        <v>3.9</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:34</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.76</v>
+        <v>1.46</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.68</v>
+        <v>1.63</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:34</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.63</v>
+        <v>3.02</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.52</v>
+        <v>3.76</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.78</v>
+        <v>2.07</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.6</v>
+        <v>2.79</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>5.14</v>
+        <v>2.59</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:49</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.77</v>
+        <v>1.58</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.79</v>
+        <v>3.6</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.14</v>
+        <v>3.84</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.59</v>
+        <v>5.14</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:49</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-strumska-slava/SYYe3A6q/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.75</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.75</v>
+        <v>3.02</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.84</v>
+        <v>2.63</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Spartak Pleven</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.54</v>
+        <v>4.38</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.49</v>
+        <v>5.25</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.49</v>
+        <v>7.61</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.09</v>
+        <v>13.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.56</v>
+        <v>3.17</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.02</v>
+        <v>2.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.66</v>
+        <v>2.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.63</v>
+        <v>2.06</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.27</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.38</v>
+        <v>3.17</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>5.25</v>
+        <v>3.18</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>7.61</v>
+        <v>3.84</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>13.6</v>
+        <v>4.58</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
       <c r="J77" t="n">
-        <v>3.17</v>
+        <v>1.55</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>2.89</v>
+        <v>3.54</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.98</v>
+        <v>3.49</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.06</v>
+        <v>4.49</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.1</v>
+        <v>1.76</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.01</v>
+        <v>3.33</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.06</v>
+        <v>3.82</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.05</v>
+        <v>3.65</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dobrudzha/AXWgso6o/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.49</v>
+        <v>3.1</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dobrudzha/AXWgso6o/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.76</v>
+        <v>2.49</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.88</v>
+        <v>3.42</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.82</v>
+        <v>2.56</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.65</v>
+        <v>2.07</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.51</v>
+        <v>3.13</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.03</v>
+        <v>3.64</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.72</v>
+        <v>4.65</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.99</v>
+        <v>6.37</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.65</v>
+        <v>5.34</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.37</v>
+        <v>6.7</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.52</v>
+        <v>4.03</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.34</v>
+        <v>4.72</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.7</v>
+        <v>6.99</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>1</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Maritsa Plovdiv</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
       <c r="J112" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.06</v>
+        <v>3.11</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.35</v>
+        <v>2.06</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.06</v>
+        <v>6.35</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.66</v>
+        <v>2.52</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.62</v>
+        <v>3.05</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.21</v>
+        <v>2.51</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:46</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>4.24</v>
+        <v>2.64</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>5.62</v>
+        <v>2.64</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.85</v>
+        <v>3.78</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>3.34</v>
+        <v>1.95</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>4.6</v>
+        <v>1.83</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.51</v>
+        <v>3.21</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.05</v>
+        <v>4.24</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.13</v>
+        <v>5.62</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.78</v>
+        <v>1.85</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>1.95</v>
+        <v>3.34</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>1.83</v>
+        <v>4.6</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>2.39</v>
+        <v>1.54</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.07</v>
+        <v>1.42</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2.92</v>
+        <v>3.39</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.23</v>
+        <v>3.83</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.59</v>
+        <v>4.81</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.2</v>
+        <v>7.25</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.54</v>
+        <v>2.39</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.42</v>
+        <v>2.07</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.39</v>
+        <v>2.92</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.83</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.81</v>
+        <v>2.59</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>7.25</v>
+        <v>3.2</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,531 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45233.5625</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45233.5625</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45233.5625</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45233.5625</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>Svoge</t>
         </is>
       </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:47</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45233.5625</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>Yantra Gabrovo</t>
         </is>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>27/10/2023 14:49</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P133" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>27/10/2023 14:46</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T133" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>27/10/2023 14:49</t>
-        </is>
-      </c>
-      <c r="V133" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>02/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V138"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.36</v>
+        <v>2.15</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.37</v>
+        <v>2.42</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:42</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.94</v>
+        <v>2.79</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.03</v>
+        <v>2.78</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.19</v>
+        <v>3.09</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>8.08</v>
+        <v>3.01</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.42</v>
+        <v>1.37</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 12:42</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.79</v>
+        <v>3.94</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2.78</v>
+        <v>4.03</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.09</v>
+        <v>6.19</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,108 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.01</v>
+        <v>8.08</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45233.6875</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>02/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>02/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>02/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>03/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-chernomorets-balchik/OdUxbUnf/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>3.17</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.63</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.61</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.17</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>4.63</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.09</v>
+        <v>3.91</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>5.61</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
       <c r="J16" t="n">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.08</v>
+        <v>1.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.04</v>
+        <v>3.49</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>4.09</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.22</v>
+        <v>2.99</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.49</v>
+        <v>3.19</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:05</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.09</v>
+        <v>2.7</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.78</v>
+        <v>2.31</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.9</v>
+        <v>3.23</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.04</v>
+        <v>4.46</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.97</v>
+        <v>4.94</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.23</v>
+        <v>2.9</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.46</v>
+        <v>3.04</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.94</v>
+        <v>3.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:34</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.63</v>
+        <v>3.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>2.63</v>
+        <v>5.25</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.22</v>
+        <v>3.9</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.7</v>
+        <v>3.64</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.1</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:34</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.02</v>
+        <v>1.63</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.07</v>
+        <v>3.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>3.2</v>
+        <v>2.07</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>1.55</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.02</v>
+        <v>1.61</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.73</v>
+        <v>3.54</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.66</v>
+        <v>3.49</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.63</v>
+        <v>4.49</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.52</v>
+        <v>4.09</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.27</v>
+        <v>2.56</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.2</v>
+        <v>3.02</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.38</v>
+        <v>2.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>5.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>7.61</v>
+        <v>2.63</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>13.6</v>
+        <v>2.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.61</v>
+        <v>1.2</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.89</v>
+        <v>4.38</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.98</v>
+        <v>5.25</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.06</v>
+        <v>7.61</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>3.17</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.75</v>
+        <v>2.61</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.84</v>
+        <v>2.06</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.58</v>
+        <v>2.6</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.49</v>
+        <v>3.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.49</v>
+        <v>3.84</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.09</v>
+        <v>4.58</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.06</v>
+        <v>6.35</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Maritsa Plovdiv</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
       <c r="J114" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.43</v>
+        <v>3.34</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4.06</v>
+        <v>3.11</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.3</v>
+        <v>2.72</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.35</v>
+        <v>2.06</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>4</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.34</v>
+        <v>1.22</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.71</v>
+        <v>4.87</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.17</v>
+        <v>5.51</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.86</v>
+        <v>7.93</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>4.26</v>
+        <v>15.5</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.22</v>
+        <v>2.34</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>4.87</v>
+        <v>2.71</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>5.51</v>
+        <v>3.17</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.93</v>
+        <v>2.86</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>15.5</v>
+        <v>4.26</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.7</v>
+        <v>3.24</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2.51</v>
+        <v>3.51</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:46</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.64</v>
+        <v>4.05</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.64</v>
+        <v>5.13</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.78</v>
+        <v>3.05</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.4</v>
+        <v>2.51</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:46</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.83</v>
+        <v>2.64</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.66</v>
+        <v>3.35</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.62</v>
+        <v>3.78</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.24</v>
+        <v>1.95</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.62</v>
+        <v>1.83</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>3.34</v>
+        <v>4.24</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.6</v>
+        <v>5.62</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.67</v>
+        <v>3.39</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.64</v>
+        <v>3.83</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.19</v>
+        <v>4.81</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.9</v>
+        <v>7.25</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.39</v>
+        <v>3.67</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.83</v>
+        <v>3.64</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.81</v>
+        <v>5.19</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>7.25</v>
+        <v>5.9</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.13</v>
+        <v>4.6</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -13242,6 +13242,282 @@
       <c r="V139" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-chernomorets-balchik/OdUxbUnf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45237.46875</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>07/11/2023 11:15</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>07/11/2023 11:15</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>07/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>07/11/2023 11:15</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-montana/6LJscl20/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45237.5625</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>07/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>07/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>07/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>07/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>07/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>07/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45237.5625</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>4</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>07/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>07/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>07/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>07/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>07/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>07/11/2023 13:26</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V142"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>5.13</v>
+        <v>4.6</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2.86</v>
+        <v>3.24</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2.88</v>
+        <v>3.51</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>2.15</v>
+        <v>4.31</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.42</v>
+        <v>4.54</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.09</v>
+        <v>1.67</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>4.31</v>
+        <v>1.94</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>4.54</v>
+        <v>1.64</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.8</v>
+        <v>3.49</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>1.67</v>
+        <v>3.35</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>1.89</v>
+        <v>4.74</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.49</v>
+        <v>3.23</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>4.74</v>
+        <v>4.67</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:47</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>1.91</v>
+        <v>1.36</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 12:42</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>2.97</v>
+        <v>3.94</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.23</v>
+        <v>4.03</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.48</v>
+        <v>6.19</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>4.67</v>
+        <v>8.08</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>03/11/2023 12:47</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1.36</v>
+        <v>2.15</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.37</v>
+        <v>2.42</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:42</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.94</v>
+        <v>2.79</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>4.03</v>
+        <v>2.78</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>6.19</v>
+        <v>3.09</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>8.08</v>
+        <v>3.01</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.01</v>
+        <v>1.22</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.08</v>
+        <v>4.19</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.13</v>
+        <v>5.28</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.37</v>
+        <v>6.34</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.47</v>
+        <v>10.71</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.22</v>
+        <v>2.01</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.19</v>
+        <v>3.08</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>5.28</v>
+        <v>3.13</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>6.34</v>
+        <v>3.37</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,108 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>10.71</v>
+        <v>3.47</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45240.5625</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>10/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-belasitsa-petrich/pS69BmHg/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.17</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>4.63</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.09</v>
+        <v>3.91</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>5.61</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>3.17</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.63</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.61</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:05</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.09</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.99</v>
+        <v>3.22</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.19</v>
+        <v>3.49</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.7</v>
+        <v>4.09</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.01</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>3.63</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.9</v>
+        <v>3.82</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.21</v>
+        <v>5.07</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.78</v>
+        <v>5.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.62</v>
+        <v>2.85</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.84</v>
+        <v>2.97</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.27</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.69</v>
+        <v>2.31</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.63</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.07</v>
+        <v>3.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.69</v>
+        <v>3.78</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.23</v>
+        <v>2.9</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.46</v>
+        <v>3.04</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.94</v>
+        <v>3.97</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2.9</v>
+        <v>3.23</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.04</v>
+        <v>4.46</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.97</v>
+        <v>4.94</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>5.25</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.22</v>
+        <v>3.9</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>2.7</v>
+        <v>3.64</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.1</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:34</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.02</v>
+        <v>1.63</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>4</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:34</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.63</v>
+        <v>3.02</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>3.2</v>
+        <v>2.07</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.07</v>
+        <v>3.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.61</v>
+        <v>3.02</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.54</v>
+        <v>2.73</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.49</v>
+        <v>2.63</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>4.09</v>
+        <v>2.52</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.56</v>
+        <v>1.27</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.02</v>
+        <v>1.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.73</v>
+        <v>4.38</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.66</v>
+        <v>5.25</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.63</v>
+        <v>7.61</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.52</v>
+        <v>13.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.27</v>
+        <v>3.17</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>5.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>7.61</v>
+        <v>2.06</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>16/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>3.17</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S76" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P76" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>16/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T76" t="n">
-        <v>2.6</v>
+        <v>4.58</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Chernomorets 1919</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.84</v>
+        <v>4.49</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.58</v>
+        <v>4.09</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.4</v>
+        <v>1.88</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.3</v>
+        <v>1.89</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:56</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.04</v>
+        <v>3.05</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.83</v>
+        <v>2.91</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.31</v>
+        <v>3.45</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>7.8</v>
+        <v>4.27</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>28/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>27/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>28/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O97" t="inlineStr">
+      <c r="R97" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S97" t="inlineStr">
         <is>
           <t>27/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Q97" t="inlineStr">
+      <c r="T97" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U97" t="inlineStr">
         <is>
           <t>28/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R97" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>27/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T97" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>28/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2.77</v>
+        <v>4.04</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.23</v>
+        <v>4.83</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.11</v>
+        <v>5.31</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.57</v>
+        <v>7.8</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.13</v>
+        <v>3.51</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.64</v>
+        <v>4.03</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.65</v>
+        <v>4.72</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.37</v>
+        <v>6.99</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.34</v>
+        <v>4.65</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.7</v>
+        <v>6.37</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.03</v>
+        <v>3.52</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.72</v>
+        <v>5.34</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.99</v>
+        <v>6.7</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.06</v>
+        <v>2.97</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:45</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.35</v>
+        <v>3.82</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Belasitsa</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
       <c r="J113" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,11 +10808,11 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.9</v>
+        <v>3.34</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:45</t>
+          <t>08/10/2023 14:57</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.82</v>
+        <v>2.06</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
       <c r="J114" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.34</v>
+        <v>1.43</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.11</v>
+        <v>4.06</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:57</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.06</v>
+        <v>6.35</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:59</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-yantra-gabrovo/8lUoVvDj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.22</v>
+        <v>2.34</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.17</v>
+        <v>1.8</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>4.87</v>
+        <v>2.71</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>5.51</v>
+        <v>3.17</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:59</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>7.93</v>
+        <v>2.86</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>15.5</v>
+        <v>4.26</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>20/10/2023 14:55</t>
+          <t>20/10/2023 14:20</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G117" t="n">
+        <v>4</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
       <c r="J117" t="n">
-        <v>2.34</v>
+        <v>1.22</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.8</v>
+        <v>1.17</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>2.71</v>
+        <v>4.87</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.17</v>
+        <v>5.51</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:59</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.86</v>
+        <v>7.93</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.26</v>
+        <v>15.5</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>20/10/2023 14:20</t>
+          <t>20/10/2023 14:55</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-litex-lovech/27Dlk04M/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-chernomorets-balchik/Kr8glKJS/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.03</v>
+        <v>2.94</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.48</v>
+        <v>3.71</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.4</v>
+        <v>4.22</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.89</v>
+        <v>2.75</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.18</v>
+        <v>2.85</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.71</v>
+        <v>2.34</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.22</v>
+        <v>2.6</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.93</v>
+        <v>5.4</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -11989,14 +11989,14 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2.88</v>
+        <v>2.51</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:46</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>3.34</v>
+        <v>2.64</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>4.6</v>
+        <v>2.64</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.52</v>
+        <v>1.66</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.05</v>
+        <v>1.62</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2.51</v>
+        <v>3.21</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:46</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.64</v>
+        <v>4.24</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.64</v>
+        <v>5.62</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.78</v>
+        <v>1.85</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.95</v>
+        <v>3.34</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.83</v>
+        <v>4.6</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -12265,14 +12265,14 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1.66</v>
+        <v>3.35</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.62</v>
+        <v>3.78</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.24</v>
+        <v>1.95</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.62</v>
+        <v>1.83</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,190 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-belasitsa-petrich/pS69BmHg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-maritsa-plovdiv/l0D0D9ns/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-1919/hhAH9Ro6/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.98</v>
+        <v>1.29</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.1</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15/07/2023 17:25</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.03</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.17</v>
+        <v>5.19</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>15/07/2023 17:25</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.3</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:38</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>15/07/2023 17:08</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-montana/rBd6jkva/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/07/2023 17:29</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>15/07/2023 17:29</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.63</v>
+        <v>2.18</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>15/07/2023 17:29</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-yantra-gabrovo/OWfywW9a/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.79</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.47</v>
+        <v>3.13</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15/07/2023 17:26</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>2.94</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>15/07/2023 17:27</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.54</v>
+        <v>2.63</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>6.24</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>15/07/2023 17:27</t>
+          <t>15/07/2023 17:29</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-spartak-pleven/SOihZm9O/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-yantra-gabrovo/OWfywW9a/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:25</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.7</v>
+        <v>3.03</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>5.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.609999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>15/07/2023 15:38</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:08</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-chernomorets-balchik/llc2iVOh/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-montana/rBd6jkva/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.02</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:26</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:27</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.18</v>
+        <v>3.54</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.21</v>
+        <v>6.24</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-svoge/WdbqyAvC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-spartak-pleven/SOihZm9O/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>3.17</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.63</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.61</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.17</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>4.63</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.09</v>
+        <v>3.91</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>5.61</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:24</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:24</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.78</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.63</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.69</v>
+        <v>2.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.97</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.36</v>
+        <v>5.07</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.31</v>
+        <v>5.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.78</v>
+        <v>2.31</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:24</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>4.06</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.24</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.58</v>
+        <v>6.75</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.19</v>
+        <v>10.35</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Chernomorets Balchik</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:24</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3.24</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>6.75</v>
+        <v>4.58</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>10.35</v>
+        <v>4.19</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.5</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.69</v>
+        <v>3.66</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.73</v>
+        <v>5.21</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.91</v>
+        <v>3.51</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.9</v>
+        <v>4.84</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.92</v>
+        <v>3.87</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.51</v>
+        <v>3.91</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.84</v>
+        <v>5.9</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.87</v>
+        <v>6.92</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Yantra Gabrovo</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>3</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.66</v>
+        <v>4.69</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.21</v>
+        <v>4.73</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.11</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:50</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2.9</v>
+        <v>3.23</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:56</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.04</v>
+        <v>4.46</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.97</v>
+        <v>4.94</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>27/08/2023 16:59</t>
+          <t>27/08/2023 16:05</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:50</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.23</v>
+        <v>2.9</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:56</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.46</v>
+        <v>3.04</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.94</v>
+        <v>3.97</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>27/08/2023 16:05</t>
+          <t>27/08/2023 16:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-yantra-gabrovo/jmOHkixp/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-svoge/YBDMlBij/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.9</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.1</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:34</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.63</v>
+        <v>3.02</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>01/09/2023 15:10</t>
+          <t>01/09/2023 15:43</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.63</v>
+        <v>1.81</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.7</v>
+        <v>3.11</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.52</v>
+        <v>3.76</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.02</v>
+        <v>4.68</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>01/09/2023 15:43</t>
+          <t>01/09/2023 15:55</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-litex-lovech/ERhL9CTF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -6469,14 +6469,14 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1.81</v>
+        <v>5.25</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.67</v>
+        <v>3.9</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.11</v>
+        <v>3.64</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:34</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.76</v>
+        <v>1.46</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.68</v>
+        <v>1.63</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/09/2023 15:55</t>
+          <t>01/09/2023 15:10</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-ludogorets/0OlHAhE9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-septemvri-sofia/0nX31lyd/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.07</v>
+        <v>3.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.14</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.59</v>
+        <v>2.39</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>03/09/2023 15:01</t>
+          <t>03/09/2023 15:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>3.2</v>
+        <v>2.07</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.97</v>
+        <v>2.79</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.08</v>
+        <v>3.14</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.39</v>
+        <v>2.59</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>03/09/2023 15:45</t>
+          <t>03/09/2023 15:01</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dunav-ruse/CMz808j2/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-montana/nuiT7jbS/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>1.27</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.02</v>
+        <v>1.2</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.73</v>
+        <v>4.38</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.66</v>
+        <v>5.25</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.63</v>
+        <v>7.61</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.52</v>
+        <v>13.6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.27</v>
+        <v>3.17</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>5.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>7.61</v>
+        <v>2.06</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>3.17</v>
+        <v>1.55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.89</v>
+        <v>3.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.98</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.06</v>
+        <v>4.49</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>2.56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.75</v>
+        <v>3.02</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.84</v>
+        <v>2.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.54</v>
+        <v>3.17</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.49</v>
+        <v>3.18</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.49</v>
+        <v>3.84</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.09</v>
+        <v>4.58</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.51</v>
+        <v>3.13</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.03</v>
+        <v>3.64</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.72</v>
+        <v>4.65</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.99</v>
+        <v>6.37</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.65</v>
+        <v>5.34</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.37</v>
+        <v>6.7</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.52</v>
+        <v>4.03</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>5.34</v>
+        <v>4.72</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.7</v>
+        <v>6.99</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.44</v>
+        <v>1.81</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.8</v>
+        <v>3.71</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.93</v>
+        <v>4.22</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>2</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
       <c r="J119" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.81</v>
+        <v>2.44</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.71</v>
+        <v>2.8</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.22</v>
+        <v>2.93</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>3.05</v>
+        <v>2.07</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.7</v>
+        <v>2.92</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2.51</v>
+        <v>3.23</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:46</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.2</v>
+        <v>3.67</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.21</v>
+        <v>3.64</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="R127" t="n">
-        <v>4.24</v>
+        <v>5.19</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.62</v>
+        <v>5.9</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.86</v>
+        <v>3.39</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>2.88</v>
+        <v>3.83</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.34</v>
+        <v>4.81</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>4.6</v>
+        <v>7.25</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>3.35</v>
+        <v>1.68</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>3.78</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.93</v>
+        <v>3.24</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>1.95</v>
+        <v>4.05</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>1.83</v>
+        <v>5.13</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -12349,38 +12349,38 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
         <v>2</v>
       </c>
-      <c r="J130" t="n">
-        <v>1.54</v>
-      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>26/10/2023 03:12</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.39</v>
+        <v>2.86</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.83</v>
+        <v>2.88</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.81</v>
+        <v>3.34</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>7.25</v>
+        <v>4.6</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.67</v>
+        <v>3.2</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.64</v>
+        <v>3.21</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>5.19</v>
+        <v>4.24</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>5.9</v>
+        <v>5.62</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.07</v>
+        <v>3.78</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.59</v>
+        <v>1.95</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.68</v>
+        <v>2.52</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.24</v>
+        <v>2.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.51</v>
+        <v>2.51</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:46</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.05</v>
+        <v>2.64</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.13</v>
+        <v>2.64</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>4.31</v>
+        <v>2.15</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>4.54</v>
+        <v>2.42</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>1.67</v>
+        <v>3.09</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1.89</v>
+        <v>3.01</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:42</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.98</v>
+        <v>3.94</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.49</v>
+        <v>4.03</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.35</v>
+        <v>6.19</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.74</v>
+        <v>8.08</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.23</v>
+        <v>3.49</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>03/11/2023 12:47</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.36</v>
+        <v>4.31</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.37</v>
+        <v>4.54</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>03/11/2023 12:42</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.94</v>
+        <v>3.15</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.03</v>
+        <v>2.8</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>6.19</v>
+        <v>1.67</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>8.08</v>
+        <v>1.89</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,14 +13093,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.09</v>
+        <v>3.48</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.01</v>
+        <v>4.67</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 12:47</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.22</v>
+        <v>2.01</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4.19</v>
+        <v>3.08</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>5.28</v>
+        <v>3.13</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>6.34</v>
+        <v>3.37</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>10.71</v>
+        <v>3.47</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.01</v>
+        <v>1.22</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.08</v>
+        <v>4.19</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.13</v>
+        <v>5.28</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.37</v>
+        <v>6.34</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>3.47</v>
+        <v>10.71</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,466 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-1919/hhAH9Ro6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:06</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:06</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2.93</v>
+        <v>3.34</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.33</v>
+        <v>4.93</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>4.41</v>
+        <v>5.77</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.44</v>
+        <v>3.09</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>4.93</v>
+        <v>3.33</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,108 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45243.6875</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>13/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>13/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>13/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>13/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>13/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>13/11/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dobrudzha/hxMgfnnJ/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V151"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>3.08</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.19</v>
+        <v>3.04</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,48 +9244,48 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
+          <t>28/09/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>27/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
           <t>28/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O96" t="inlineStr">
+      <c r="R96" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S96" t="inlineStr">
         <is>
           <t>27/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Q96" t="inlineStr">
+      <c r="T96" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U96" t="inlineStr">
         <is>
           <t>28/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R96" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>27/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>28/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>28/09/2023 15:56</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.23</v>
+        <v>2.91</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.57</v>
+        <v>4.27</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-svoge/CrS69OjU/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.76</v>
+        <v>2.49</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.88</v>
+        <v>3.42</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.82</v>
+        <v>2.56</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.65</v>
+        <v>2.07</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.49</v>
+        <v>1.76</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.42</v>
+        <v>1.88</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.56</v>
+        <v>3.82</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.07</v>
+        <v>3.65</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
       <c r="J118" t="n">
-        <v>1.89</v>
+        <v>2.75</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.18</v>
+        <v>2.85</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>3.71</v>
+        <v>2.34</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.22</v>
+        <v>2.6</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.93</v>
+        <v>5.4</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>2</v>
-      </c>
       <c r="J120" t="n">
-        <v>2.75</v>
+        <v>1.89</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.85</v>
+        <v>3.18</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.34</v>
+        <v>3.71</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.6</v>
+        <v>4.22</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.48</v>
+        <v>2.8</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.4</v>
+        <v>2.93</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>1</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Strumska Slava</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
       <c r="J122" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
         <v>1.81</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O122" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O122" t="inlineStr">
+      <c r="P122" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S122" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P122" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S122" t="inlineStr">
-        <is>
-          <t>21/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T122" t="n">
-        <v>5.05</v>
+        <v>4.56</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:45</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.03</v>
+        <v>3.74</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>4.56</v>
+        <v>5.05</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
         </is>
       </c>
     </row>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>2.15</v>
+        <v>1.36</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.42</v>
+        <v>1.37</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 12:42</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2.79</v>
+        <v>3.94</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.78</v>
+        <v>4.03</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.09</v>
+        <v>6.19</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.01</v>
+        <v>8.08</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 12:42</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.94</v>
+        <v>2.97</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>4.03</v>
+        <v>3.23</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>6.19</v>
+        <v>3.48</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>8.08</v>
+        <v>4.67</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 12:47</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.49</v>
+        <v>2.78</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.35</v>
+        <v>3.09</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>4.74</v>
+        <v>3.01</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.23</v>
+        <v>3.49</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:47</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
         <v>2</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
       <c r="J146" t="n">
-        <v>1.64</v>
+        <v>5.09</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,48 +13844,48 @@
         </is>
       </c>
       <c r="L146" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>1.56</v>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:28</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O146" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>12/11/2023 02:42</t>
         </is>
       </c>
-      <c r="P146" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R146" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>12/11/2023 02:42</t>
-        </is>
-      </c>
       <c r="T146" t="n">
-        <v>5.77</v>
+        <v>1.46</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
       <c r="J147" t="n">
-        <v>5.09</v>
+        <v>2.62</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,48 +13936,48 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>6.24</v>
+        <v>2.06</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="N147" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
         <v>3.54</v>
       </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>12/11/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P147" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:15</t>
-        </is>
-      </c>
-      <c r="R147" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>12/11/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T147" t="n">
-        <v>1.46</v>
-      </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.62</v>
+        <v>4.82</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.06</v>
+        <v>5.52</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2.96</v>
+        <v>3.67</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.75</v>
+        <v>1.59</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.54</v>
+        <v>1.53</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>4.82</v>
+        <v>2.09</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>5.52</v>
+        <v>1.8</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.49</v>
+        <v>2.93</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.67</v>
+        <v>3.09</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>1.59</v>
+        <v>3.33</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>1.53</v>
+        <v>4.41</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.93</v>
+        <v>3.34</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.33</v>
+        <v>4.93</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>4.41</v>
+        <v>5.77</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>
@@ -14346,6 +14346,98 @@
       <c r="V151" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dobrudzha/hxMgfnnJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45247.5625</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>17/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>17/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-ludogorets/GUDWPqyB/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12717,22 +12717,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>1.36</v>
+        <v>4.31</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.37</v>
+        <v>4.54</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 12:42</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.94</v>
+        <v>3.15</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>4.03</v>
+        <v>2.8</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.19</v>
+        <v>1.67</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>8.08</v>
+        <v>1.89</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.97</v>
+        <v>2.98</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.23</v>
+        <v>3.49</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:26</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.48</v>
+        <v>3.35</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.67</v>
+        <v>4.74</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 12:47</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,14 +12909,14 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.42</v>
+        <v>1.72</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2.79</v>
+        <v>2.97</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:26</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>3.09</v>
+        <v>3.48</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.01</v>
+        <v>4.67</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 12:47</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-svoge/KOof6huE/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>4.31</v>
+        <v>1.36</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>4.54</v>
+        <v>1.37</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:42</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.15</v>
+        <v>3.94</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2.8</v>
+        <v>4.03</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>1.67</v>
+        <v>6.19</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>1.89</v>
+        <v>8.08</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
         </is>
       </c>
     </row>
@@ -13085,22 +13085,22 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.49</v>
+        <v>2.78</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.35</v>
+        <v>3.09</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.74</v>
+        <v>3.01</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>
@@ -14438,6 +14438,98 @@
       <c r="V152" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-ludogorets/GUDWPqyB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45253.5625</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:14</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:14</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>5</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:14</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>23/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-chernomorets-1919/UcVsWKcp/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.08</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.04</v>
+        <v>3.19</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>23/07/2023 15:35</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>23/07/2023 16:11</t>
+          <t>23/07/2023 17:15</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" t="n">
-        <v>3.22</v>
+        <v>2.95</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.28</v>
+        <v>3.09</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.49</v>
+        <v>3.04</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:05</t>
+          <t>23/07/2023 15:35</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>4.09</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>23/07/2023 17:14</t>
+          <t>23/07/2023 16:11</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-septemvri-sofia/O25PQA3E/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.99</v>
+        <v>3.22</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.19</v>
+        <v>3.49</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:05</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.7</v>
+        <v>4.09</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>23/07/2023 17:15</t>
+          <t>23/07/2023 17:14</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-montana/U3OY3md1/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-bdin-vidin/r7l8InBf/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.78</v>
+        <v>2.31</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.63</v>
+        <v>2.84</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.69</v>
+        <v>2.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.97</v>
+        <v>3.63</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.36</v>
+        <v>5.07</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.31</v>
+        <v>5.69</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>4.85</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.99</v>
+        <v>4.66</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.89</v>
+        <v>3.32</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.01</v>
+        <v>3.57</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.68</v>
+        <v>1.64</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>4.85</v>
+        <v>1.55</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.66</v>
+        <v>1.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.57</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>1.58</v>
+        <v>4.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>1.64</v>
+        <v>4.19</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.58</v>
+        <v>3.1</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.94</v>
+        <v>3.51</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.27</v>
+        <v>3.93</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.66</v>
+        <v>4.84</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.21</v>
+        <v>3.87</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -3885,71 +3885,71 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.51</v>
+        <v>3.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.93</v>
+        <v>4.09</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.84</v>
+        <v>5.9</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.87</v>
+        <v>6.92</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.91</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.09</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.9</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>6.92</v>
+        <v>5.21</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.27</v>
+        <v>3.17</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>5.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>7.61</v>
+        <v>2.06</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>16/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>3.17</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O74" t="inlineStr">
+      <c r="P74" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S74" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P74" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>16/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T74" t="n">
-        <v>2.6</v>
+        <v>4.58</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.17</v>
+        <v>4.38</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.18</v>
+        <v>5.25</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.84</v>
+        <v>7.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.58</v>
+        <v>13.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>2.75</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.59</v>
+        <v>2.71</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.42</v>
+        <v>2.85</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.48</v>
+        <v>2.34</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.94</v>
+        <v>3.03</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.71</v>
+        <v>3.48</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.22</v>
+        <v>5.4</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.44</v>
+        <v>1.81</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.8</v>
+        <v>3.71</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.93</v>
+        <v>4.22</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:56</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>2.72</v>
+        <v>3.15</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,15 +11652,15 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.01</v>
+        <v>3.45</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:58</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>3.03</v>
+        <v>3.74</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,16 +11668,16 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>4.56</v>
+        <v>5.05</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>22/10/2023 14:57</t>
+          <t>22/10/2023 14:45</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
         </is>
       </c>
     </row>
@@ -11705,71 +11705,71 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>1</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Strumska Slava</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
       <c r="J123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
         <v>1.81</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O123" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O123" t="inlineStr">
+      <c r="P123" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S123" t="inlineStr">
         <is>
           <t>21/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P123" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>22/10/2023 14:45</t>
-        </is>
-      </c>
-      <c r="R123" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S123" t="inlineStr">
-        <is>
-          <t>21/10/2023 02:13</t>
-        </is>
-      </c>
       <c r="T123" t="n">
-        <v>5.05</v>
+        <v>4.56</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>22/10/2023 14:45</t>
+          <t>22/10/2023 14:57</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-strumska-slava/GEgPrbsj/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-cska-1948-sofia/IJBxh2K3/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.07</v>
+        <v>3.78</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.59</v>
+        <v>1.95</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.46</v>
+        <v>2.39</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.51</v>
+        <v>2.07</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.67</v>
+        <v>2.92</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.39</v>
+        <v>3.67</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.83</v>
+        <v>3.64</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.81</v>
+        <v>5.19</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.25</v>
+        <v>5.9</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.51</v>
+        <v>3.83</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.05</v>
+        <v>4.81</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.13</v>
+        <v>7.25</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.86</v>
+        <v>3.24</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2.88</v>
+        <v>3.51</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.24</v>
+        <v>3.34</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>5.62</v>
+        <v>4.6</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>3.35</v>
+        <v>1.66</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>3.78</v>
+        <v>1.62</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>1.95</v>
+        <v>4.24</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.83</v>
+        <v>5.62</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.01</v>
+        <v>1.22</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.08</v>
+        <v>4.19</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.13</v>
+        <v>5.28</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>3.37</v>
+        <v>6.34</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>3.47</v>
+        <v>10.71</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.22</v>
+        <v>2.01</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>4.19</v>
+        <v>3.08</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>5.28</v>
+        <v>3.13</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>6.34</v>
+        <v>3.37</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>10.71</v>
+        <v>3.47</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
         </is>
       </c>
     </row>
@@ -14530,6 +14530,374 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-chernomorets-1919/UcVsWKcp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:28</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-dobrudzha/IgpjOQ0a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-belasitsa-petrich/ChHT6PVO/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:24</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.78</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:24</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.85</v>
+        <v>2.08</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.73</v>
+        <v>2.01</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>2.82</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.27</v>
+        <v>2.9</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.36</v>
+        <v>3.21</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.31</v>
+        <v>3.78</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
       <c r="J21" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.01</v>
+        <v>2.39</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.21</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.78</v>
+        <v>2.69</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.84</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.48</v>
+        <v>5.07</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.69</v>
+        <v>5.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>2.85</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.63</v>
+        <v>2.97</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.82</v>
+        <v>3.27</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.07</v>
+        <v>2.36</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.69</v>
+        <v>2.31</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.58</v>
+        <v>3.1</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.89</v>
+        <v>3.5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.01</v>
+        <v>3.24</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>4.58</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.51</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.93</v>
+        <v>3.27</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.84</v>
+        <v>3.66</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.87</v>
+        <v>5.21</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>3.51</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>3.93</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>4.84</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.21</v>
+        <v>3.87</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.17</v>
+        <v>1.27</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.61</v>
+        <v>1.2</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.89</v>
+        <v>4.38</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.98</v>
+        <v>5.25</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.06</v>
+        <v>7.61</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.6</v>
+        <v>13.6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>2.56</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.75</v>
+        <v>3.02</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.84</v>
+        <v>2.63</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Spartak Pleven</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.55</v>
+        <v>3.17</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.61</v>
+        <v>2.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.54</v>
+        <v>2.89</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.49</v>
+        <v>2.98</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.49</v>
+        <v>2.06</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.09</v>
+        <v>2.6</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.02</v>
+        <v>1.75</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.73</v>
+        <v>3.17</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.66</v>
+        <v>3.18</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.63</v>
+        <v>3.84</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.52</v>
+        <v>4.58</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.38</v>
+        <v>3.54</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.25</v>
+        <v>3.49</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.61</v>
+        <v>4.49</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.6</v>
+        <v>4.09</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.26</v>
+        <v>2.75</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.44</v>
+        <v>2.71</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>2</v>
-      </c>
       <c r="J119" t="n">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.71</v>
+        <v>1.59</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.81</v>
+        <v>3.03</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>2.85</v>
+        <v>3.42</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.34</v>
+        <v>3.48</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.03</v>
+        <v>2.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.48</v>
+        <v>3.71</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.4</v>
+        <v>4.22</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>2</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
       <c r="J121" t="n">
-        <v>1.89</v>
+        <v>2.26</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.81</v>
+        <v>2.44</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.71</v>
+        <v>2.8</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.22</v>
+        <v>2.93</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>3.35</v>
+        <v>2.39</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>3.78</v>
+        <v>2.07</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>1.95</v>
+        <v>2.59</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -12081,14 +12081,14 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.39</v>
+        <v>1.46</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>2.07</v>
+        <v>1.51</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.92</v>
+        <v>3.67</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.23</v>
+        <v>3.64</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.67</v>
+        <v>3.39</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.64</v>
+        <v>3.83</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.19</v>
+        <v>4.81</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.9</v>
+        <v>7.25</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.83</v>
+        <v>3.51</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.81</v>
+        <v>4.05</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>7.25</v>
+        <v>5.13</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.13</v>
+        <v>4.6</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -12449,14 +12449,14 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>3.34</v>
+        <v>4.24</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>4.6</v>
+        <v>5.62</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.66</v>
+        <v>3.35</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.62</v>
+        <v>3.78</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.21</v>
+        <v>3.4</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>4.24</v>
+        <v>1.95</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.62</v>
+        <v>1.83</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G146" t="n">
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>2</v>
-      </c>
       <c r="J146" t="n">
-        <v>5.09</v>
+        <v>1.64</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>6.24</v>
+        <v>1.56</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.54</v>
+        <v>3.34</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.84</v>
+        <v>3.44</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>1.56</v>
+        <v>4.93</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1.46</v>
+        <v>5.77</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>2.62</v>
+        <v>5.09</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.06</v>
+        <v>6.24</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2.74</v>
+        <v>3.54</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2.96</v>
+        <v>3.84</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.75</v>
+        <v>1.56</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.54</v>
+        <v>1.46</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>4.82</v>
+        <v>2.62</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>5.52</v>
+        <v>2.06</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.67</v>
+        <v>2.96</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>1.59</v>
+        <v>2.75</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>1.53</v>
+        <v>3.54</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
-        <v>2.09</v>
+        <v>4.82</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.8</v>
+        <v>5.52</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>2.93</v>
+        <v>3.49</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.09</v>
+        <v>3.67</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.33</v>
+        <v>1.59</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>4.41</v>
+        <v>1.53</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.44</v>
+        <v>3.09</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>4.93</v>
+        <v>3.33</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
         </is>
       </c>
     </row>
@@ -14557,71 +14557,71 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Strumska Slava</t>
-        </is>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
       <c r="J154" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>1.56</v>
+        <v>1.78</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 13:27</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.47</v>
+        <v>3.39</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 13:28</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.82</v>
+        <v>3.34</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>5.74</v>
+        <v>4.02</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 13:28</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
         </is>
       </c>
     </row>
@@ -14649,71 +14649,71 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.78</v>
+        <v>2.19</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>25/11/2023 13:27</t>
+          <t>25/11/2023 12:41</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.12</v>
+        <v>3.26</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.39</v>
+        <v>2.76</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/11/2023 13:28</t>
+          <t>25/11/2023 12:41</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.34</v>
+        <v>4.35</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="T155" t="n">
-        <v>4.02</v>
+        <v>3.49</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>25/11/2023 13:28</t>
+          <t>25/11/2023 12:41</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-belasitsa-petrich/ChHT6PVO/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.19</v>
+        <v>1.56</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>25/11/2023 12:41</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2.76</v>
+        <v>3.47</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>25/11/2023 12:41</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>4.35</v>
+        <v>3.82</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,108 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>3.49</v>
+        <v>5.74</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>25/11/2023 12:41</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-belasitsa-petrich/ChHT6PVO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45257.625</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>27/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>27/11/2023 14:23</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>27/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>27/11/2023 14:24</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>27/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>27/11/2023 14:24</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-septemvri-sofia/OWpnP6og/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14557,71 +14557,71 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>1.78</v>
+        <v>4.43</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>25/11/2023 13:27</t>
+          <t>25/11/2023 12:46</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.12</v>
+        <v>3.37</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.39</v>
+        <v>3.58</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25/11/2023 13:28</t>
+          <t>25/11/2023 12:46</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>3.34</v>
+        <v>1.62</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>4.02</v>
+        <v>1.66</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>25/11/2023 13:28</t>
+          <t>25/11/2023 12:46</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-dobrudzha/IgpjOQ0a/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.19</v>
+        <v>1.56</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>25/11/2023 12:41</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2.76</v>
+        <v>3.47</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/11/2023 12:41</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.35</v>
+        <v>3.82</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.49</v>
+        <v>5.74</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>25/11/2023 12:41</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-belasitsa-petrich/ChHT6PVO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>4.43</v>
+        <v>1.78</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>25/11/2023 12:46</t>
+          <t>25/11/2023 13:27</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.58</v>
+        <v>3.39</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>25/11/2023 12:46</t>
+          <t>25/11/2023 13:28</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>1.62</v>
+        <v>3.34</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>1.66</v>
+        <v>4.02</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>25/11/2023 12:46</t>
+          <t>25/11/2023 13:28</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-dobrudzha/IgpjOQ0a/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
         </is>
       </c>
     </row>
@@ -14833,22 +14833,22 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -14856,15 +14856,15 @@
         </is>
       </c>
       <c r="L157" t="n">
-        <v>1.56</v>
+        <v>2.19</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 12:41</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
@@ -14872,15 +14872,15 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.47</v>
+        <v>2.76</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 12:41</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.82</v>
+        <v>4.35</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -14888,16 +14888,16 @@
         </is>
       </c>
       <c r="T157" t="n">
-        <v>5.74</v>
+        <v>3.49</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 12:41</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-belasitsa-petrich/ChHT6PVO/</t>
         </is>
       </c>
     </row>
@@ -14990,6 +14990,98 @@
       <c r="V158" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-septemvri-sofia/OWpnP6og/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45259.5625</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>3</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>28/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:00</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>28/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>28/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>29/11/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-1919/Wr9L8o1C/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3.17</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>4.63</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.09</v>
+        <v>3.91</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.14</v>
+        <v>5.61</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>3.17</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.63</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>5.61</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:24</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:24</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.78</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.78</v>
+        <v>2.31</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.39</v>
+        <v>2.01</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>3.21</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.69</v>
+        <v>3.78</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.5</v>
+        <v>2.62</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>2.39</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.63</v>
+        <v>2.84</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.69</v>
+        <v>2.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Marek</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>2.85</v>
+        <v>1.5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>2.97</v>
+        <v>3.63</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.27</v>
+        <v>3.82</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.36</v>
+        <v>5.07</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.31</v>
+        <v>5.69</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.89</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.01</v>
+        <v>3.24</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.1</v>
+        <v>4.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.68</v>
+        <v>4.19</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.5</v>
+        <v>2.89</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.58</v>
+        <v>3.1</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.19</v>
+        <v>3.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>2.94</v>
+        <v>3.51</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.27</v>
+        <v>3.93</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.66</v>
+        <v>4.84</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.21</v>
+        <v>3.87</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I39" t="n">
         <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.51</v>
+        <v>2.94</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.93</v>
+        <v>3.27</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.84</v>
+        <v>3.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.87</v>
+        <v>5.21</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.27</v>
+        <v>3.17</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>5.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>7.61</v>
+        <v>2.06</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.02</v>
+        <v>1.75</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:09</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.73</v>
+        <v>3.17</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.66</v>
+        <v>3.18</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:23</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.63</v>
+        <v>3.84</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.52</v>
+        <v>4.58</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>3.17</v>
+        <v>1.55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.89</v>
+        <v>3.54</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.98</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.06</v>
+        <v>4.49</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.6</v>
+        <v>4.09</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>2.56</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.75</v>
+        <v>3.02</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.84</v>
+        <v>2.63</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.58</v>
+        <v>2.52</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Spartak Pleven</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
       <c r="J77" t="n">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.54</v>
+        <v>4.38</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.49</v>
+        <v>5.25</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.49</v>
+        <v>7.61</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.09</v>
+        <v>13.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>1.3</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>2.77</v>
+        <v>4.04</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.23</v>
+        <v>4.83</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.11</v>
+        <v>5.31</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.57</v>
+        <v>7.8</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>28/09/2023 15:59</t>
+          <t>28/09/2023 15:58</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.04</v>
+        <v>2.77</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.83</v>
+        <v>3.23</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.31</v>
+        <v>3.11</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.8</v>
+        <v>3.57</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/09/2023 15:58</t>
+          <t>28/09/2023 15:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-maritsa-plovdiv/OfL5YGND/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-spartak-varna/0KrZGlht/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.05</v>
+        <v>2.87</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:40</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.25</v>
+        <v>2.29</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.87</v>
+        <v>2.05</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:40</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.29</v>
+        <v>3.25</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.49</v>
+        <v>1.76</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>3.42</v>
+        <v>1.88</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>2.56</v>
+        <v>3.82</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.07</v>
+        <v>3.65</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.76</v>
+        <v>2.49</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.88</v>
+        <v>3.42</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.33</v>
+        <v>3.04</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.82</v>
+        <v>2.56</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.65</v>
+        <v>2.07</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.13</v>
+        <v>3.51</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.64</v>
+        <v>4.03</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.65</v>
+        <v>4.72</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>6.37</v>
+        <v>6.99</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:46</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.51</v>
+        <v>3.13</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.03</v>
+        <v>3.64</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.72</v>
+        <v>4.65</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.99</v>
+        <v>6.37</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:46</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-marek/Icz2uPzb/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.81</v>
+        <v>2.88</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.34</v>
+        <v>2.8</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.03</v>
+        <v>2.94</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.42</v>
+        <v>3.18</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.48</v>
+        <v>3.71</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.4</v>
+        <v>4.22</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Svoge</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.89</v>
+        <v>2.75</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.81</v>
+        <v>2.71</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.18</v>
+        <v>2.85</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>3.71</v>
+        <v>2.34</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.22</v>
+        <v>2.6</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.44</v>
+        <v>1.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>2.8</v>
+        <v>3.48</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.93</v>
+        <v>5.4</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.39</v>
+        <v>1.66</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,48 +12004,48 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.07</v>
+        <v>1.62</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
           <t>27/10/2023 14:51</t>
         </is>
       </c>
-      <c r="N126" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P126" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>27/10/2023 14:51</t>
-        </is>
-      </c>
-      <c r="R126" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T126" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U126" t="inlineStr">
-        <is>
-          <t>27/10/2023 14:51</t>
-        </is>
-      </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1.46</v>
+        <v>2.52</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.51</v>
+        <v>3.05</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.67</v>
+        <v>2.7</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.64</v>
+        <v>2.51</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:46</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.19</v>
+        <v>2.64</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.9</v>
+        <v>2.64</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1.54</v>
+        <v>3.35</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.42</v>
+        <v>3.78</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.39</v>
+        <v>2.93</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>4.81</v>
+        <v>1.95</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>7.25</v>
+        <v>1.83</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>3.24</v>
+        <v>2.86</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>3.51</v>
+        <v>2.88</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>5.13</v>
+        <v>4.6</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
       <c r="J130" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2.88</v>
+        <v>3.23</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>3.34</v>
+        <v>2.59</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.2</v>
+        <v>3.39</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.21</v>
+        <v>3.83</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.24</v>
+        <v>4.81</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>5.62</v>
+        <v>7.25</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>3.35</v>
+        <v>1.46</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>3.78</v>
+        <v>1.51</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.93</v>
+        <v>3.67</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>1.95</v>
+        <v>5.19</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>1.83</v>
+        <v>5.9</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
-        <v>2.52</v>
+        <v>1.68</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.05</v>
+        <v>1.6</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2.7</v>
+        <v>3.24</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>2.51</v>
+        <v>3.51</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>27/10/2023 14:46</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>2.64</v>
+        <v>4.05</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.64</v>
+        <v>5.13</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -13361,22 +13361,22 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -13384,15 +13384,15 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.22</v>
+        <v>2.01</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>4.19</v>
+        <v>3.08</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
@@ -13400,15 +13400,15 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>5.28</v>
+        <v>3.13</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>6.34</v>
+        <v>3.37</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -13416,16 +13416,16 @@
         </is>
       </c>
       <c r="T141" t="n">
-        <v>10.71</v>
+        <v>3.47</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>07/11/2023 13:26</t>
+          <t>07/11/2023 13:28</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.01</v>
+        <v>1.22</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.08</v>
+        <v>4.19</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.13</v>
+        <v>5.28</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.37</v>
+        <v>6.34</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>3.47</v>
+        <v>10.71</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>07/11/2023 13:28</t>
+          <t>07/11/2023 13:26</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-litex-lovech/p6VYbAXm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-ludogorets/GWQUajIs/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>11/11/2023 13:27</t>
+          <t>11/11/2023 13:15</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.85</v>
+        <v>3.33</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>11/11/2023 13:27</t>
+          <t>11/11/2023 13:15</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.92</v>
+        <v>4.55</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>5.95</v>
+        <v>5.56</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>11/11/2023 13:27</t>
+          <t>11/11/2023 13:15</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-maritsa-plovdiv/l0D0D9ns/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-1919/hhAH9Ro6/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>11/11/2023 13:15</t>
+          <t>11/11/2023 13:27</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.33</v>
+        <v>3.85</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>11/11/2023 13:15</t>
+          <t>11/11/2023 13:27</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>4.55</v>
+        <v>3.92</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>5.56</v>
+        <v>5.95</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>11/11/2023 13:15</t>
+          <t>11/11/2023 13:27</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-1919/hhAH9Ro6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-maritsa-plovdiv/l0D0D9ns/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
         <v>2</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
       <c r="J146" t="n">
-        <v>1.64</v>
+        <v>5.09</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,48 +13844,48 @@
         </is>
       </c>
       <c r="L146" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:15</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
         <v>1.56</v>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:28</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O146" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>12/11/2023 02:42</t>
         </is>
       </c>
-      <c r="P146" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:28</t>
-        </is>
-      </c>
-      <c r="R146" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>12/11/2023 02:42</t>
-        </is>
-      </c>
       <c r="T146" t="n">
-        <v>5.77</v>
+        <v>1.46</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Septemvri Sofia</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>2</v>
-      </c>
       <c r="J147" t="n">
-        <v>5.09</v>
+        <v>2.62</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,48 +13936,48 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>6.24</v>
+        <v>2.06</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="N147" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>12/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
         <v>3.54</v>
       </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>12/11/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P147" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>12/11/2023 13:15</t>
-        </is>
-      </c>
-      <c r="R147" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>12/11/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T147" t="n">
-        <v>1.46</v>
-      </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
         <v>1</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
       <c r="J148" t="n">
-        <v>2.62</v>
+        <v>4.82</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.06</v>
+        <v>5.52</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>2.96</v>
+        <v>3.67</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>2.75</v>
+        <v>1.59</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.54</v>
+        <v>1.53</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
         </is>
       </c>
     </row>
@@ -14097,22 +14097,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>4.82</v>
+        <v>2.09</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>5.52</v>
+        <v>1.8</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.49</v>
+        <v>2.93</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.67</v>
+        <v>3.09</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>1.59</v>
+        <v>3.33</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>1.53</v>
+        <v>4.41</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>2.93</v>
+        <v>3.34</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.33</v>
+        <v>4.93</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>4.41</v>
+        <v>5.77</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>
@@ -15082,6 +15082,98 @@
       <c r="V159" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-1919/Wr9L8o1C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45261.54166666666</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>01/12/2023 12:03</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-litex-lovech/0xx7Kr0O/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:V163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.27</v>
+        <v>3.14</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>3.17</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.63</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.91</v>
+        <v>3.09</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.8</v>
+        <v>2.04</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.61</v>
+        <v>2.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>22/07/2023 17:27</t>
+          <t>22/07/2023 17:28</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.14</v>
+        <v>1.27</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.17</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>4.63</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.09</v>
+        <v>3.91</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.04</v>
+        <v>6.8</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>5.61</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>22/07/2023 17:28</t>
+          <t>22/07/2023 17:27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dunav-ruse/hxATPUIK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-maritsa-plovdiv/WS8XOlYQ/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.93</v>
+        <v>1.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.07</v>
+        <v>3.96</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.69</v>
+        <v>4.09</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.65</v>
+        <v>5.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.16</v>
+        <v>6.42</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/07/2023 18:58</t>
+          <t>29/07/2023 18:13</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:03</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.96</v>
+        <v>3.07</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.09</v>
+        <v>3.69</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.22</v>
+        <v>3.65</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>6.42</v>
+        <v>3.16</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/07/2023 18:13</t>
+          <t>29/07/2023 18:58</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-chernomorets-balchik/2VNpW5uf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-chernomorets-1919/vZsHGQu7/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Chernomorets Balchik</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:24</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.06</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>3.24</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>6.75</v>
+        <v>4.58</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>05/08/2023 12:42</t>
+          <t>04/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>10.35</v>
+        <v>4.19</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/08/2023 16:43</t>
+          <t>05/08/2023 16:39</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>4.85</v>
+        <v>2.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4.66</v>
+        <v>1.99</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.32</v>
+        <v>2.89</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.57</v>
+        <v>3.01</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>3.1</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.64</v>
+        <v>3.68</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>05/08/2023 16:39</t>
+          <t>05/08/2023 16:45</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.55</v>
+        <v>4.85</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.79</v>
+        <v>4.66</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.24</v>
+        <v>3.57</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.58</v>
+        <v>1.58</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.19</v>
+        <v>1.64</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-maritsa-plovdiv/4bpGoous/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-dobrudzha/WAF1SNvJ/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Dunav Ruse</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.09</v>
+        <v>1.37</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.99</v>
+        <v>1.24</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:24</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>2.89</v>
+        <v>4.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.01</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>6.75</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>04/08/2023 05:12</t>
+          <t>05/08/2023 12:42</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.68</v>
+        <v>10.35</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/08/2023 16:45</t>
+          <t>05/08/2023 16:43</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-dunav-ruse/nJcljRWP/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-chernomorets-balchik/pfDkVPf0/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.51</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.93</v>
+        <v>3.27</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>4.84</v>
+        <v>3.66</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>13/08/2023 10:13</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.87</v>
+        <v>5.21</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:52</t>
+          <t>13/08/2023 16:58</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.09</v>
+        <v>3.44</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.9</v>
+        <v>4.69</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>13/08/2023 10:14</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.92</v>
+        <v>4.73</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>13/08/2023 16:13</t>
+          <t>13/08/2023 16:56</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>2.94</v>
+        <v>3.91</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.27</v>
+        <v>4.09</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.66</v>
+        <v>5.9</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:14</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>5.21</v>
+        <v>6.92</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>13/08/2023 16:58</t>
+          <t>13/08/2023 16:13</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-yantra-gabrovo/SxVuts9I/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-svoge/ttZqu1OO/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.93</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.69</v>
+        <v>4.84</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.73</v>
+        <v>3.87</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>13/08/2023 16:56</t>
+          <t>13/08/2023 16:52</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-spartak-pleven/dh9ga49t/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-chernomorets-1919/pEuysNgC/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>16/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>3.17</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S73" t="inlineStr">
         <is>
           <t>16/09/2023 04:12</t>
         </is>
       </c>
-      <c r="P73" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>17/09/2023 15:49</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>16/09/2023 04:12</t>
-        </is>
-      </c>
       <c r="T73" t="n">
-        <v>2.6</v>
+        <v>4.58</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>17/09/2023 15:49</t>
+          <t>17/09/2023 15:08</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>2</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Chernomorets 1919</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:09</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:23</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.84</v>
+        <v>4.49</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.58</v>
+        <v>4.09</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>17/09/2023 15:08</t>
+          <t>17/09/2023 15:57</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-1919/KScZGTzq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.61</v>
+        <v>3.02</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.54</v>
+        <v>2.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.49</v>
+        <v>2.63</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.09</v>
+        <v>2.52</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>17/09/2023 15:57</t>
+          <t>17/09/2023 15:46</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-spartak-pleven/bgRsDoz8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Spartak Varna</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.56</v>
+        <v>1.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.02</v>
+        <v>1.2</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.73</v>
+        <v>4.38</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.66</v>
+        <v>5.25</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.63</v>
+        <v>7.61</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.52</v>
+        <v>13.6</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>17/09/2023 15:46</t>
+          <t>17/09/2023 15:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-varna/MiIbNVcF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.27</v>
+        <v>3.17</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>4.38</v>
+        <v>2.89</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>5.25</v>
+        <v>2.98</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>7.61</v>
+        <v>2.06</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>13.6</v>
+        <v>2.6</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>17/09/2023 15:56</t>
+          <t>17/09/2023 15:49</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-bdin-vidin/r767L9SR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-svoge/htdsF75e/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -12357,14 +12357,14 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>2.39</v>
+        <v>1.46</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.07</v>
+        <v>1.51</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>2.92</v>
+        <v>3.67</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.23</v>
+        <v>3.64</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,14 +12541,14 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.46</v>
+        <v>2.39</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.51</v>
+        <v>2.07</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.67</v>
+        <v>2.92</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,14 +13645,14 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>11/11/2023 13:15</t>
+          <t>11/11/2023 13:27</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.33</v>
+        <v>3.85</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>11/11/2023 13:15</t>
+          <t>11/11/2023 13:27</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.55</v>
+        <v>3.92</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>5.56</v>
+        <v>5.95</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>11/11/2023 13:15</t>
+          <t>11/11/2023 13:27</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-1919/hhAH9Ro6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-maritsa-plovdiv/l0D0D9ns/</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -13737,14 +13737,14 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>11/11/2023 13:27</t>
+          <t>11/11/2023 13:15</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>3.85</v>
+        <v>3.33</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>11/11/2023 13:27</t>
+          <t>11/11/2023 13:15</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>3.92</v>
+        <v>4.55</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>5.95</v>
+        <v>5.56</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>11/11/2023 13:27</t>
+          <t>11/11/2023 13:15</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-maritsa-plovdiv/l0D0D9ns/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-1919/hhAH9Ro6/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>5.09</v>
+        <v>2.09</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>6.24</v>
+        <v>1.8</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>3.54</v>
+        <v>2.93</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.84</v>
+        <v>3.09</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>1.56</v>
+        <v>3.33</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1.46</v>
+        <v>4.41</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:15</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2.62</v>
+        <v>1.64</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2.74</v>
+        <v>3.34</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.75</v>
+        <v>4.93</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.54</v>
+        <v>5.77</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:22</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>4.82</v>
+        <v>2.62</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>5.52</v>
+        <v>2.06</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.67</v>
+        <v>2.96</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>1.59</v>
+        <v>2.75</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>1.53</v>
+        <v>3.54</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>12/11/2023 12:36</t>
+          <t>12/11/2023 13:22</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dunav-ruse/WKQYHkvQ/</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -14105,14 +14105,14 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
-        <v>2.09</v>
+        <v>5.09</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -14120,15 +14120,15 @@
         </is>
       </c>
       <c r="L149" t="n">
-        <v>1.8</v>
+        <v>6.24</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>2.93</v>
+        <v>3.54</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
@@ -14136,15 +14136,15 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.09</v>
+        <v>3.84</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>3.33</v>
+        <v>1.56</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -14152,16 +14152,16 @@
         </is>
       </c>
       <c r="T149" t="n">
-        <v>4.41</v>
+        <v>1.46</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:15</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-septemvri-sofia/hURUIVOJ/</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -14197,14 +14197,14 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>1.64</v>
+        <v>4.82</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.56</v>
+        <v>5.52</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.44</v>
+        <v>3.67</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>4.93</v>
+        <v>1.59</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>5.77</v>
+        <v>1.53</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 12:36</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-spartak-varna/23H4CT1m/</t>
         </is>
       </c>
     </row>
@@ -15174,6 +15174,282 @@
       <c r="V160" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-litex-lovech/0xx7Kr0O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-pleven/4j2Hvnot/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-yantra-gabrovo/j74TypVb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:00</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>02/12/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-balchik/hCx3LOpI/</t>
         </is>
       </c>
     </row>

--- a/2023/bulgaria_vtora-liga_2023-2024.xlsx
+++ b/2023/bulgaria_vtora-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V163"/>
+  <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,71 +573,71 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Litex Lovech</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:25</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.03</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="P2" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>15/07/2023 17:25</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
         <v>3.3</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>15/07/2023 17:10</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>5.72</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>15/07/2023 15:39</t>
+          <t>14/07/2023 05:42</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5.45</v>
+        <v>3.2</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>15/07/2023 17:10</t>
+          <t>15/07/2023 17:08</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-litex-lovech/AcbbhB9n/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-montana/rBd6jkva/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:25</t>
+          <t>15/07/2023 17:26</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.03</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.17</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:25</t>
+          <t>15/07/2023 17:27</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.2</v>
+        <v>6.24</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>15/07/2023 17:08</t>
+          <t>15/07/2023 17:27</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-montana/rBd6jkva/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-spartak-pleven/SOihZm9O/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.79</v>
+        <v>1.51</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15/07/2023 17:26</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>15/07/2023 17:27</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.54</v>
+        <v>5.72</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>14/07/2023 05:42</t>
+          <t>15/07/2023 15:39</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.24</v>
+        <v>5.45</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>15/07/2023 17:27</t>
+          <t>15/07/2023 17:10</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-spartak-pleven/SOihZm9O/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-litex-lovech/AcbbhB9n/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.82</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.69</v>
+        <v>3.59</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.48</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:24</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.78</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>21/07/2023 06:42</t>
+          <t>22/07/2023 16:45</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>22/07/2023 18:29</t>
+          <t>22/07/2023 18:18</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>3.82</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.59</v>
+        <v>2.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.48</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:24</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>2.78</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>22/07/2023 16:45</t>
+          <t>21/07/2023 06:42</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>22/07/2023 18:18</t>
+          <t>22/07/2023 18:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-strumska-slava/r7Sx37B7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-dobrudzha/pC6LRjl8/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>2.97</v>
+        <v>2.84</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 15:36</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>29/07/2023 13:12</t>
+          <t>28/07/2023 05:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.31</v>
+        <v>2.69</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>29/07/2023 16:46</t>
+          <t>29/07/2023 16:28</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.08</v>
+        <v>2.85</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>2.97</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.9</v>
+        <v>3.27</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.21</v>
+        <v>2.36</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>28/07/2023 05:42</t>
+          <t>29/07/2023 13:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.78</v>
+        <v>2.31</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>29/07/2023 17:02</t>
+          <t>29/07/2023 16:46</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-marek/McmCH6Q0/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
       <c r="J22" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.39</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>2.84</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.18</v>
+        <v>3.82</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>29/07/2023 15:36</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.48</v>
+        <v>5.07</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.69</v>
+        <v>5.69</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>29/07/2023 16:28</t>
+          <t>29/07/2023 17:03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-cska-1948-sofia/pWY6wlmK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.63</v>
+        <v>2.82</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.07</v>
+        <v>3.21</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.69</v>
+        <v>3.78</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>29/07/2023 17:03</t>
+          <t>29/07/2023 17:02</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-ludogorets/U3AwYRAs/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-litex-lovech/OvPtXoQm/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.55</v>
+        <v>2.38</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.45</v>
+        <v>2.93</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.51</v>
+        <v>2.97</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.66</v>
+        <v>2.6</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>22/09/2023 15:56</t>
+          <t>22/09/2023 15:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.38</v>
+        <v>1.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.93</v>
+        <v>3.45</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.97</v>
+        <v>3.51</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.6</v>
+        <v>4.66</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>22/09/2023 15:59</t>
+          <t>22/09/2023 15:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dunav-ruse/6JjLQ447/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-spartak-pleven/CdFPyVC8/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Chernomorets Balchik</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.44</v>
+        <v>2.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.31</v>
+        <v>2.42</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>23/09/2023 15:39</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.64</v>
+        <v>2.81</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.34</v>
+        <v>2.76</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.58</v>
+        <v>2.46</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.050000000000001</v>
+        <v>3.04</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:08</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-balchik/nF7xZSdR/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-montana/v7a4Un5r/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>1.44</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,48 +8232,48 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
+          <t>23/09/2023 15:39</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="N85" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O85" t="inlineStr">
+      <c r="R85" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S85" t="inlineStr">
         <is>
           <t>22/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P85" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q85" t="inlineStr">
+      <c r="T85" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="U85" t="inlineStr">
         <is>
           <t>23/09/2023 15:58</t>
         </is>
       </c>
-      <c r="R85" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>22/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T85" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:58</t>
-        </is>
-      </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-litex-lovech/8O8YZ8sL/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-chernomorets-balchik/nF7xZSdR/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.41</v>
+        <v>4.01</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.3</v>
+        <v>4.08</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.89</v>
+        <v>2.95</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.56</v>
+        <v>3.12</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.42</v>
+        <v>1.79</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>8.49</v>
+        <v>1.85</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>23/09/2023 15:26</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-ludogorets/QaJTzkSE/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dobrudzha/0MmDSQZf/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Montana</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.42</v>
+        <v>2.89</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:57</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:37</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.04</v>
+        <v>2.36</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>23/09/2023 15:08</t>
+          <t>23/09/2023 15:57</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-montana/v7a4Un5r/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-strumska-slava/Icb8T6Kl/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>4.01</v>
+        <v>1.41</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>4.08</v>
+        <v>1.3</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>2.95</v>
+        <v>3.89</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.12</v>
+        <v>4.56</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.79</v>
+        <v>5.42</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.85</v>
+        <v>8.49</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>23/09/2023 15:58</t>
+          <t>23/09/2023 15:26</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-dobrudzha/0MmDSQZf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-ludogorets/QaJTzkSE/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Strumska Slava</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
       <c r="J89" t="n">
-        <v>2.8</v>
+        <v>2.04</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.89</v>
+        <v>1.85</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:37</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.29</v>
+        <v>3.39</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.36</v>
+        <v>3.76</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-strumska-slava/Icb8T6Kl/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-litex-lovech/8O8YZ8sL/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.87</v>
+        <v>2.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9632,11 +9632,11 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:40</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.29</v>
+        <v>3.25</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.04</v>
+        <v>4.16</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>01/10/2023 14:51</t>
+          <t>01/10/2023 14:52</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.05</v>
+        <v>2.87</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9724,11 +9724,11 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:40</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.25</v>
+        <v>2.29</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>4.16</v>
+        <v>3.04</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>01/10/2023 14:52</t>
+          <t>01/10/2023 14:51</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-balchik/xp2uON5N/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-cska-1948-sofia/OMePR56b/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.76</v>
+        <v>3.1</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.33</v>
+        <v>3.01</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.82</v>
+        <v>2.06</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.65</v>
+        <v>2.05</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>02/10/2023 14:57</t>
+          <t>02/10/2023 14:56</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dobrudzha/AXWgso6o/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:46</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>02/10/2023 14:56</t>
+          <t>02/10/2023 14:08</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-dobrudzha/AXWgso6o/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.49</v>
+        <v>1.76</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>3.42</v>
+        <v>1.88</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:46</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.56</v>
+        <v>3.82</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.07</v>
+        <v>3.65</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>02/10/2023 14:08</t>
+          <t>02/10/2023 14:57</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-septemvri-sofia/Ozybt5Li/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-spartak-pleven/IqeTQPL4/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Litex Lovech</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Bdin Vidin</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.46</v>
+        <v>3.13</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.52</v>
+        <v>3.64</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.34</v>
+        <v>4.65</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.7</v>
+        <v>6.37</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>07/10/2023 14:37</t>
+          <t>07/10/2023 14:51</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Litex Lovech</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.13</v>
+        <v>3.46</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.64</v>
+        <v>3.52</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.65</v>
+        <v>5.34</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.37</v>
+        <v>6.7</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>07/10/2023 14:51</t>
+          <t>07/10/2023 14:37</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-dunav-ruse/dlZ5vqj4/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-bdin-vidin/OGhFz1kT/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.76</v>
+        <v>3.07</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2.97</v>
+        <v>4.06</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:45</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.82</v>
+        <v>6.35</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>08/10/2023 14:19</t>
+          <t>08/10/2023 14:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,14 +10885,14 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.07</v>
+        <v>2.76</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>4.06</v>
+        <v>2.97</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:45</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.35</v>
+        <v>3.82</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>08/10/2023 14:58</t>
+          <t>08/10/2023 14:19</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-maritsa-plovdiv/x0j3w35A/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-belasitsa-petrich/ADlByszN/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.26</v>
+        <v>2.75</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.44</v>
+        <v>2.71</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>2.88</v>
+        <v>2.81</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>21/10/2023 14:48</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>2.94</v>
+        <v>3.03</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.71</v>
+        <v>3.48</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.22</v>
+        <v>5.4</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
         </is>
       </c>
     </row>
@@ -11429,22 +11429,22 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Ludogorets II</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>2</v>
-      </c>
       <c r="J120" t="n">
-        <v>2.75</v>
+        <v>1.89</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -11452,15 +11452,15 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.71</v>
+        <v>1.81</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
@@ -11468,15 +11468,15 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>2.85</v>
+        <v>3.18</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.34</v>
+        <v>3.71</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.6</v>
+        <v>4.22</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-ludogorets/OGEpjtkG/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-svoge/zeMXhr5c/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Chernomorets 1919</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.42</v>
+        <v>2.83</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>3.48</v>
+        <v>2.8</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.4</v>
+        <v>2.93</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:48</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-spartak-pleven/UgFtiMZ9/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-montana/MifLqvSq/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>1.66</v>
+        <v>2.39</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,40 +12004,40 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="N126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
         <v>3.2</v>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P126" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>27/10/2023 14:53</t>
-        </is>
-      </c>
-      <c r="R126" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="S126" t="inlineStr">
-        <is>
-          <t>26/10/2023 03:12</t>
-        </is>
-      </c>
-      <c r="T126" t="n">
-        <v>5.62</v>
-      </c>
       <c r="U126" t="inlineStr">
         <is>
           <t>27/10/2023 14:51</t>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Chernomorets 1919</t>
         </is>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.05</v>
+        <v>1.51</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>2.7</v>
+        <v>3.67</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2.51</v>
+        <v>3.64</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:46</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.64</v>
+        <v>5.19</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.64</v>
+        <v>5.9</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>27/10/2023 14:49</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>3.35</v>
+        <v>1.54</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.78</v>
+        <v>1.42</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>2.93</v>
+        <v>3.39</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.95</v>
+        <v>4.81</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.83</v>
+        <v>7.25</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>27/10/2023 14:50</t>
+          <t>27/10/2023 14:53</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Ludogorets II</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="I129" t="n">
         <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,15 +12280,15 @@
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>2.86</v>
+        <v>3.24</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
@@ -12296,15 +12296,15 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>2.88</v>
+        <v>3.51</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:41</t>
         </is>
       </c>
       <c r="R129" t="n">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -12312,16 +12312,16 @@
         </is>
       </c>
       <c r="T129" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>27/10/2023 14:48</t>
+          <t>27/10/2023 13:03</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>1</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Chernomorets 1919</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
       <c r="J130" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.67</v>
+        <v>2.86</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.64</v>
+        <v>2.88</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>5.19</v>
+        <v>3.34</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:48</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-chernomorets-1919/Ag43qVX0/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-dunav-ruse/4lkJ4u49/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.39</v>
+        <v>3.2</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.83</v>
+        <v>3.21</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.81</v>
+        <v>4.24</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>7.25</v>
+        <v>5.62</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/10/2023 14:53</t>
+          <t>27/10/2023 14:51</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-marek/WMyC61Zd/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-bdin-vidin/W25apBIf/</t>
         </is>
       </c>
     </row>
@@ -12533,22 +12533,22 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -12556,15 +12556,15 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>2.07</v>
+        <v>3.78</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
@@ -12572,15 +12572,15 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="R132" t="n">
-        <v>2.59</v>
+        <v>1.95</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -12588,16 +12588,16 @@
         </is>
       </c>
       <c r="T132" t="n">
-        <v>3.2</v>
+        <v>1.83</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>27/10/2023 14:51</t>
+          <t>27/10/2023 14:50</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-maritsa-plovdiv/rulN3aJF/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-septemvri-sofia/ADzG5Ll3/</t>
         </is>
       </c>
     </row>
@@ -12625,22 +12625,22 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ludogorets II</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>1.68</v>
+        <v>2.52</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -12648,15 +12648,15 @@
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.6</v>
+        <v>3.05</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>3.24</v>
+        <v>2.7</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
@@ -12664,15 +12664,15 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>3.51</v>
+        <v>2.51</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:41</t>
+          <t>27/10/2023 14:46</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.05</v>
+        <v>2.64</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -12680,16 +12680,16 @@
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.13</v>
+        <v>2.64</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>27/10/2023 13:03</t>
+          <t>27/10/2023 14:49</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-belasitsa-petrich/xt6eoi3l/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-yantra-gabrovo/SUb8rkm7/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,14 +12725,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I134" t="n">
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>4.31</v>
+        <v>2.15</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -12740,15 +12740,15 @@
         </is>
       </c>
       <c r="L134" t="n">
-        <v>4.54</v>
+        <v>2.42</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.15</v>
+        <v>2.79</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
@@ -12756,15 +12756,15 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>1.67</v>
+        <v>3.09</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -12772,16 +12772,16 @@
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1.89</v>
+        <v>3.01</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>03/11/2023 13:23</t>
+          <t>03/11/2023 12:25</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.94</v>
+        <v>1.36</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 12:42</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>2.98</v>
+        <v>3.94</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.49</v>
+        <v>4.03</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.35</v>
+        <v>6.19</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.74</v>
+        <v>8.08</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>03/11/2023 13:29</t>
+          <t>03/11/2023 13:18</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,14 +13001,14 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>2</v>
       </c>
       <c r="J137" t="n">
-        <v>1.36</v>
+        <v>1.94</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,15 +13016,15 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>03/11/2023 12:42</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.94</v>
+        <v>2.98</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.03</v>
+        <v>3.49</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>6.19</v>
+        <v>3.35</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,16 +13048,16 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>8.08</v>
+        <v>4.74</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>03/11/2023 13:18</t>
+          <t>03/11/2023 13:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dobrudzha-strumska-slava/KONod8H6/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-spartak-pleven/ENv34W9Q/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,14 +13093,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.15</v>
+        <v>4.31</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -13108,15 +13108,15 @@
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.42</v>
+        <v>4.54</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.79</v>
+        <v>3.15</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
@@ -13124,15 +13124,15 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.09</v>
+        <v>1.67</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -13140,16 +13140,16 @@
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>03/11/2023 12:25</t>
+          <t>03/11/2023 13:23</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-yantra-gabrovo/6LcCs92D/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-cska-1948-sofia/Wbkb5CfK/</t>
         </is>
       </c>
     </row>
@@ -13821,22 +13821,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Svoge</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Marek</t>
+          <t>Bdin Vidin</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>2.09</v>
+        <v>1.64</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>2.93</v>
+        <v>3.34</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>3.09</v>
+        <v>3.44</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>3.33</v>
+        <v>4.93</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>4.41</v>
+        <v>5.77</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>12/11/2023 13:06</t>
+          <t>12/11/2023 13:28</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Svoge</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Bdin Vidin</t>
+          <t>Marek</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.34</v>
+        <v>2.93</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.44</v>
+        <v>3.09</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.93</v>
+        <v>3.33</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>12/11/2023 13:28</t>
+          <t>12/11/2023 13:06</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-bdin-vidin/OI5DA7Wa/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-marek/EoNkeSWC/</t>
         </is>
       </c>
     </row>
@@ -14557,71 +14557,71 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Chernomorets Balchik</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Maritsa Plovdiv</t>
         </is>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>4.43</v>
+        <v>1.78</v>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>25/11/2023 12:46</t>
+          <t>25/11/2023 13:27</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>3.37</v>
+        <v>3.12</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3.58</v>
+        <v>3.39</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>25/11/2023 12:46</t>
+          <t>25/11/2023 13:28</t>
         </is>
       </c>
       <c r="R154" t="n">
-        <v>1.62</v>
+        <v>3.34</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>25/11/2023 02:42</t>
+          <t>25/11/2023 02:43</t>
         </is>
       </c>
       <c r="T154" t="n">
-        <v>1.66</v>
+        <v>4.02</v>
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>25/11/2023 12:46</t>
+          <t>25/11/2023 13:28</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-dobrudzha/IgpjOQ0a/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Chernomorets Balchik</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Strumska Slava</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J155" t="n">
-        <v>1.85</v>
+        <v>4.8</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>1.56</v>
+        <v>4.43</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 12:46</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 12:46</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>3.82</v>
+        <v>1.62</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>5.74</v>
+        <v>1.66</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>25/11/2023 13:21</t>
+          <t>25/11/2023 12:46</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-dobrudzha/IgpjOQ0a/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Maritsa Plovdiv</t>
+          <t>Strumska Slava</t>
         </is>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>25/11/2023 13:27</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.39</v>
+        <v>3.47</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>25/11/2023 13:28</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.34</v>
+        <v>3.82</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>25/11/2023 02:43</t>
+          <t>25/11/2023 02:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.02</v>
+        <v>5.74</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>25/11/2023 13:28</t>
+          <t>25/11/2023 13:21</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-maritsa-plovdiv/S4iwRSGt/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-strumska-slava/WdlfNpG5/</t>
         </is>
       </c>
     </row>
@@ -15201,7 +15201,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Dunav Ruse</t>
+          <t>Belasitsa</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -15209,14 +15209,14 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Spartak Pleven</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>1.49</v>
+        <v>3.01</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -15224,15 +15224,15 @@
         </is>
       </c>
       <c r="L161" t="n">
-        <v>1.44</v>
+        <v>2.29</v>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>02/12/2023 12:59</t>
+          <t>02/12/2023 12:57</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3.76</v>
+        <v>2.78</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
@@ -15240,15 +15240,15 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>4.15</v>
+        <v>2.81</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>02/12/2023 12:59</t>
+          <t>02/12/2023 12:57</t>
         </is>
       </c>
       <c r="R161" t="n">
-        <v>5.67</v>
+        <v>2.37</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -15256,16 +15256,16 @@
         </is>
       </c>
       <c r="T161" t="n">
-        <v>5.88</v>
+        <v>3.2</v>
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>02/12/2023 12:59</t>
+          <t>02/12/2023 12:57</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-pleven/4j2Hvnot/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-yantra-gabrovo/j74TypVb/</t>
         </is>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>Dunav Ruse</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -15301,14 +15301,14 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Spartak Pleven</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>3.01</v>
+        <v>1.49</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.29</v>
+        <v>1.44</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>02/12/2023 12:57</t>
+          <t>02/12/2023 12:59</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2.78</v>
+        <v>3.76</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2.81</v>
+        <v>4.15</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>02/12/2023 12:57</t>
+          <t>02/12/2023 12:59</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.37</v>
+        <v>5.67</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>3.2</v>
+        <v>5.88</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>02/12/2023 12:57</t>
+          <t>02/12/2023 12:59</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/belasitsa-petrich-yantra-gabrovo/j74TypVb/</t>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/dunav-ruse-spartak-pleven/4j2Hvnot/</t>
         </is>
       </c>
     </row>
@@ -15450,6 +15450,1570 @@
       <c r="V163" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/strumska-slava-chernomorets-balchik/hCx3LOpI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/maritsa-plovdiv-cska-1948-sofia/Ig6Lw60n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>8</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-varna-svoge/CG5PxQFh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45264.54166666666</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>04/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/bdin-vidin-chernomorets-1919/8raYz4p5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45264.54166666666</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>04/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>04/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>04/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/septemvri-sofia-ludogorets/vTzBJ2FU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45264.6875</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>04/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>04/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>04/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>04/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>04/12/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>04/12/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/montana-marek/ELwaM4VB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45267.45833333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>5</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>07/12/2023 10:33</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>07/12/2023 10:33</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>07/12/2023 10:33</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-spartak-varna/Qe5BV88P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Chernomorets 1919</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:39</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:39</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:39</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-1919-belasitsa-petrich/tdctZsFH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Chernomorets Balchik</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:49</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/chernomorets-balchik-montana/zgaDyyyG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Litex Lovech</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Strumska Slava</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:30</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:30</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:30</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/litex-lovech-strumska-slava/Mke9xHL9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Marek</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:50</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/marek-bdin-vidin/nZcxzOaB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/spartak-pleven-septemvri-sofia/0z70vwic/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Svoge</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:46</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:46</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>10/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:46</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/svoge-maritsa-plovdiv/YTEEGZbj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45271.46875</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Spartak Varna</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>10/12/2023 23:41</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:12</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>10/12/2023 23:41</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:14</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>10/12/2023 23:41</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>11/12/2023 11:14</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-spartak-varna/j5P9HFqp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45271.54166666666</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>3</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>11/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>11/12/2023 12:34</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>11/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>11/12/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>11/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>11/12/2023 12:34</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/cska-1948-sofia-dunav-ruse/CKDIFgEd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45271.54166666666</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>11/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>11/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>11/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>11/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>11/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>11/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-dobrudzha/vR54wc63/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45275.54166666666</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Dunav Ruse</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>15/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>15/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>15/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/ludogorets-dunav-ruse/ptnrQnWn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>bulgaria</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>vtora-liga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Yantra Gabrovo</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Bdin Vidin</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>27/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>10.55</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bulgaria/vtora-liga/yantra-gabrovo-bdin-vidin/E7bQ75GI/</t>
         </is>
       </c>
     </row>
